--- a/results/CSG/dataset_08/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/CSG/dataset_08/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,67 +639,67 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>194.7146774925678</v>
+        <v>118.6012307603794</v>
       </c>
       <c r="H2">
-        <v>38.66646281986375</v>
+        <v>16.36636384084513</v>
       </c>
       <c r="I2">
-        <v>156.0482146727041</v>
+        <v>102.2348669195342</v>
       </c>
       <c r="J2">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="K2">
-        <v>158.7012386577454</v>
+        <v>102.2348669195342</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N2">
-        <v>0.9832829030984261</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>205.4935049353482</v>
+        <v>118.6012307603794</v>
       </c>
       <c r="P2">
-        <v>46.79226627760276</v>
+        <v>16.36636384084513</v>
       </c>
       <c r="Q2">
-        <v>1.479696488493118</v>
+        <v>1.980538620550845</v>
       </c>
       <c r="R2">
-        <v>89.46288655814172</v>
+        <v>69.82065125475359</v>
       </c>
       <c r="S2">
-        <v>4.391612573672419</v>
+        <v>7.246645126169637</v>
       </c>
       <c r="T2">
-        <v>5.035750965887133</v>
+        <v>7.246645126169637</v>
       </c>
       <c r="U2">
-        <v>1.616562664182392</v>
+        <v>1.980538620550845</v>
       </c>
       <c r="V2">
-        <v>93.54145452211576</v>
+        <v>69.82065125475359</v>
       </c>
       <c r="W2">
-        <v>71.54745136977522</v>
+        <v>125.3607991229451</v>
       </c>
       <c r="X2">
         <v>227.5956660424793</v>
       </c>
       <c r="Y2">
-        <v>68.89442738473389</v>
+        <v>125.3607991229451</v>
       </c>
       <c r="Z2">
-        <v>1.038508542501207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -719,64 +719,64 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>237.2841633861715</v>
+        <v>174.853149656567</v>
       </c>
       <c r="H3">
-        <v>26.92494601505225</v>
+        <v>11.31405089896294</v>
       </c>
       <c r="I3">
-        <v>210.3592173711192</v>
+        <v>163.5390987576041</v>
       </c>
       <c r="J3">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="K3">
-        <v>210.3592173711192</v>
+        <v>163.5390987576041</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3">
-        <v>237.2841633861715</v>
+        <v>174.853149656567</v>
       </c>
       <c r="P3">
-        <v>26.92494601505225</v>
+        <v>11.31405089896294</v>
       </c>
       <c r="Q3">
-        <v>2.176205206507685</v>
+        <v>2.737901081154629</v>
       </c>
       <c r="R3">
-        <v>151.7650096682241</v>
+        <v>132.562346569095</v>
       </c>
       <c r="S3">
-        <v>8.812799968234627</v>
+        <v>15.45451326125766</v>
       </c>
       <c r="T3">
-        <v>8.812799968234627</v>
+        <v>15.45451326125766</v>
       </c>
       <c r="U3">
-        <v>2.176205206507685</v>
+        <v>2.737901081154629</v>
       </c>
       <c r="V3">
-        <v>151.7650096682241</v>
+        <v>132.562346569095</v>
       </c>
       <c r="W3">
-        <v>34.11509957193883</v>
+        <v>80.93521818545392</v>
       </c>
       <c r="X3">
         <v>244.474316943058</v>
       </c>
       <c r="Y3">
-        <v>34.11509957193883</v>
+        <v>80.93521818545392</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -799,67 +799,67 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>235.9124540206934</v>
+        <v>144.2244245602563</v>
       </c>
       <c r="H4">
-        <v>29.6118589904666</v>
+        <v>10.29331455241298</v>
       </c>
       <c r="I4">
-        <v>206.3005950302268</v>
+        <v>133.9311100078433</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K4">
-        <v>215.7323646952256</v>
+        <v>133.9311100078433</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N4">
-        <v>0.9562802286141745</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>241.994526859706</v>
+        <v>144.2244245602563</v>
       </c>
       <c r="P4">
-        <v>26.26216216448037</v>
+        <v>10.29331455241298</v>
       </c>
       <c r="Q4">
-        <v>2.220785907329287</v>
+        <v>2.639875978344319</v>
       </c>
       <c r="R4">
-        <v>157.4097250643512</v>
+        <v>106.7580361833863</v>
       </c>
       <c r="S4">
-        <v>9.214569818893438</v>
+        <v>14.01146577478747</v>
       </c>
       <c r="T4">
-        <v>7.966823497864294</v>
+        <v>14.01146577478747</v>
       </c>
       <c r="U4">
-        <v>2.075285855999979</v>
+        <v>2.639875978344319</v>
       </c>
       <c r="V4">
-        <v>144.8475228974457</v>
+        <v>106.7580361833863</v>
       </c>
       <c r="W4">
-        <v>54.26606810377598</v>
+        <v>126.6355531261595</v>
       </c>
       <c r="X4">
         <v>260.5666631340028</v>
       </c>
       <c r="Y4">
-        <v>44.83429843877718</v>
+        <v>126.6355531261595</v>
       </c>
       <c r="Z4">
-        <v>1.210369516049821</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -879,67 +879,67 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>220.208871025515</v>
+        <v>147.6727388400209</v>
       </c>
       <c r="H5">
-        <v>45.43619883572437</v>
+        <v>17.64503990971339</v>
       </c>
       <c r="I5">
-        <v>174.7726721897906</v>
+        <v>130.0276989303075</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K5">
-        <v>177.000393655371</v>
+        <v>130.0276989303075</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N5">
-        <v>0.9874140310110392</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>227.9519622438171</v>
+        <v>147.6727388400209</v>
       </c>
       <c r="P5">
-        <v>50.95156858844609</v>
+        <v>17.64503990971339</v>
       </c>
       <c r="Q5">
-        <v>1.498259368828515</v>
+        <v>2.124543882405392</v>
       </c>
       <c r="R5">
-        <v>100.661728661223</v>
+        <v>92.54003733532693</v>
       </c>
       <c r="S5">
-        <v>4.473894888007591</v>
+        <v>8.369079333095119</v>
       </c>
       <c r="T5">
-        <v>4.846551354828015</v>
+        <v>8.369079333095119</v>
       </c>
       <c r="U5">
-        <v>1.578267391165512</v>
+        <v>2.124543882405392</v>
       </c>
       <c r="V5">
-        <v>103.0622011888544</v>
+        <v>92.54003733532693</v>
       </c>
       <c r="W5">
-        <v>73.70078427592367</v>
+        <v>118.4457575354068</v>
       </c>
       <c r="X5">
         <v>248.4734564657143</v>
       </c>
       <c r="Y5">
-        <v>71.47306281034332</v>
+        <v>118.4457575354068</v>
       </c>
       <c r="Z5">
-        <v>1.031168686187294</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,67 +959,67 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>259.298690989726</v>
+        <v>176.5166618065734</v>
       </c>
       <c r="H6">
-        <v>34.73898430138603</v>
+        <v>14.27064265101997</v>
       </c>
       <c r="I6">
-        <v>224.5597066883399</v>
+        <v>162.2460191555534</v>
       </c>
       <c r="J6">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="K6">
-        <v>225.794493287082</v>
+        <v>162.2460191555534</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N6">
-        <v>0.9945313697390658</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>277.4208822277863</v>
+        <v>176.5166618065734</v>
       </c>
       <c r="P6">
-        <v>51.62638894070429</v>
+        <v>14.27064265101997</v>
       </c>
       <c r="Q6">
-        <v>1.681502828106406</v>
+        <v>2.515210807503515</v>
       </c>
       <c r="R6">
-        <v>138.9845742783665</v>
+        <v>126.3523445296873</v>
       </c>
       <c r="S6">
-        <v>5.373625541511712</v>
+        <v>12.36921602784</v>
       </c>
       <c r="T6">
-        <v>7.464198974273994</v>
+        <v>12.36921602784</v>
       </c>
       <c r="U6">
-        <v>2.01011812105066</v>
+        <v>2.515210807503515</v>
       </c>
       <c r="V6">
-        <v>154.7302448372295</v>
+        <v>126.3523445296873</v>
       </c>
       <c r="W6">
-        <v>52.86117553944644</v>
+        <v>115.174863072233</v>
       </c>
       <c r="X6">
         <v>277.4208822277864</v>
       </c>
       <c r="Y6">
-        <v>51.62638894070437</v>
+        <v>115.174863072233</v>
       </c>
       <c r="Z6">
-        <v>1.023917740986306</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1039,67 +1039,67 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>219.2908164303061</v>
+        <v>133.2821326156697</v>
       </c>
       <c r="H7">
-        <v>27.96365414056421</v>
+        <v>13.94353905243865</v>
       </c>
       <c r="I7">
-        <v>191.3271622897419</v>
+        <v>119.338593563231</v>
       </c>
       <c r="J7">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="K7">
-        <v>197.8570010061014</v>
+        <v>132.6018674780714</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N7">
-        <v>0.9669971813827394</v>
+        <v>0.8999767185252218</v>
       </c>
       <c r="O7">
-        <v>234.791175996588</v>
+        <v>153.3278522837234</v>
       </c>
       <c r="P7">
-        <v>36.93417499048663</v>
+        <v>20.72598480565198</v>
       </c>
       <c r="Q7">
-        <v>1.849559232376796</v>
+        <v>2.001190236544319</v>
       </c>
       <c r="R7">
-        <v>129.5450566622266</v>
+        <v>91.12522904223474</v>
       </c>
       <c r="S7">
-        <v>6.357016937756553</v>
+        <v>7.397856059506076</v>
       </c>
       <c r="T7">
-        <v>7.841994301889245</v>
+        <v>9.558701855707096</v>
       </c>
       <c r="U7">
-        <v>2.059493177255395</v>
+        <v>2.257451928691151</v>
       </c>
       <c r="V7">
-        <v>133.7362073761203</v>
+        <v>87.86172443652301</v>
       </c>
       <c r="W7">
-        <v>49.80849481328832</v>
+        <v>121.7970635397992</v>
       </c>
       <c r="X7">
         <v>241.1356571030302</v>
       </c>
       <c r="Y7">
-        <v>43.27865609692881</v>
+        <v>108.5337896249588</v>
       </c>
       <c r="Z7">
-        <v>1.150878962177915</v>
+        <v>1.122204098471747</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1119,67 +1119,67 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>222.0335831647958</v>
+        <v>117.2062285825781</v>
       </c>
       <c r="H8">
-        <v>30.62521635468663</v>
+        <v>6.317507811556151</v>
       </c>
       <c r="I8">
-        <v>191.4083668101092</v>
+        <v>110.888720771022</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K8">
-        <v>199.500362233336</v>
+        <v>115.2330414369612</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N8">
-        <v>0.9594386930798533</v>
+        <v>0.9622996962349913</v>
       </c>
       <c r="O8">
-        <v>235.3983800173193</v>
+        <v>132.1127595603432</v>
       </c>
       <c r="P8">
-        <v>35.89801778398326</v>
+        <v>16.87971812338192</v>
       </c>
       <c r="Q8">
-        <v>1.880597233933922</v>
+        <v>2.057543006848717</v>
       </c>
       <c r="R8">
-        <v>131.9906492850663</v>
+        <v>80.50229545461923</v>
       </c>
       <c r="S8">
-        <v>6.557420006693175</v>
+        <v>7.826715979180927</v>
       </c>
       <c r="T8">
-        <v>7.25002496613604</v>
+        <v>18.55260524857309</v>
       </c>
       <c r="U8">
-        <v>1.981004912465625</v>
+        <v>2.920610223859028</v>
       </c>
       <c r="V8">
-        <v>130.7396627661524</v>
+        <v>92.4377428672818</v>
       </c>
       <c r="W8">
-        <v>56.37926988143278</v>
+        <v>136.89891592052</v>
       </c>
       <c r="X8">
         <v>247.787636691542</v>
       </c>
       <c r="Y8">
-        <v>48.28727445820599</v>
+        <v>132.5545952545808</v>
       </c>
       <c r="Z8">
-        <v>1.167580289300251</v>
+        <v>1.032773821666429</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,67 +1199,67 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>255.10297814158</v>
+        <v>155.752235787468</v>
       </c>
       <c r="H9">
-        <v>35.14778748041365</v>
+        <v>11.70114329579053</v>
       </c>
       <c r="I9">
-        <v>219.9551906611664</v>
+        <v>144.0510924916775</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K9">
-        <v>220.8345238080223</v>
+        <v>144.9837300489048</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N9">
-        <v>0.9960181355175227</v>
+        <v>0.9935672950550193</v>
       </c>
       <c r="O9">
-        <v>260.4563817149609</v>
+        <v>157.8288442455154</v>
       </c>
       <c r="P9">
-        <v>39.62185790693861</v>
+        <v>12.84511419661051</v>
       </c>
       <c r="Q9">
-        <v>1.883054473210701</v>
+        <v>2.508547660725902</v>
       </c>
       <c r="R9">
-        <v>146.2244070394428</v>
+        <v>112.7611488792405</v>
       </c>
       <c r="S9">
-        <v>6.573552969845707</v>
+        <v>12.28707209836735</v>
       </c>
       <c r="T9">
-        <v>7.258009576953824</v>
+        <v>13.31085620013727</v>
       </c>
       <c r="U9">
-        <v>1.982105628293153</v>
+        <v>2.588579957921657</v>
       </c>
       <c r="V9">
-        <v>150.2885632741869</v>
+        <v>113.7617474714248</v>
       </c>
       <c r="W9">
-        <v>51.82428651737612</v>
+        <v>127.728384686865</v>
       </c>
       <c r="X9">
         <v>271.7794771785425</v>
       </c>
       <c r="Y9">
-        <v>50.94495337052018</v>
+        <v>126.7957471296376</v>
       </c>
       <c r="Z9">
-        <v>1.017260456407931</v>
+        <v>1.00735543248366</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1279,67 +1279,67 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>226.5463148753847</v>
+        <v>151.9508549492832</v>
       </c>
       <c r="H10">
-        <v>42.67987571583641</v>
+        <v>23.17685276513485</v>
       </c>
       <c r="I10">
-        <v>183.8664391595483</v>
+        <v>128.7740021841484</v>
       </c>
       <c r="J10">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="K10">
-        <v>186.8082072627785</v>
+        <v>128.7740021841484</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N10">
-        <v>0.9842524686343567</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>232.9432385439307</v>
+        <v>151.9508549492832</v>
       </c>
       <c r="P10">
-        <v>46.1350312811522</v>
+        <v>23.17685276513485</v>
       </c>
       <c r="Q10">
-        <v>1.619222253422733</v>
+        <v>1.880403090892152</v>
       </c>
       <c r="R10">
-        <v>112.105337949983</v>
+        <v>85.19217660743647</v>
       </c>
       <c r="S10">
-        <v>5.049161820750652</v>
+        <v>6.556147052798483</v>
       </c>
       <c r="T10">
-        <v>5.308035955487202</v>
+        <v>6.556147052798483</v>
       </c>
       <c r="U10">
-        <v>1.669221890276559</v>
+        <v>1.880403090892152</v>
       </c>
       <c r="V10">
-        <v>112.6242563403912</v>
+        <v>85.19217660743647</v>
       </c>
       <c r="W10">
-        <v>59.4060103071788</v>
+        <v>114.4984472825788</v>
       </c>
       <c r="X10">
         <v>243.2724494667271</v>
       </c>
       <c r="Y10">
-        <v>56.4642422039486</v>
+        <v>114.4984472825788</v>
       </c>
       <c r="Z10">
-        <v>1.052099664998683</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1359,67 +1359,67 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>232.101172699752</v>
+        <v>153.4762432689084</v>
       </c>
       <c r="H11">
-        <v>29.28008633708789</v>
+        <v>15.22071762251246</v>
       </c>
       <c r="I11">
-        <v>202.8210863626641</v>
+        <v>138.2555256463959</v>
       </c>
       <c r="J11">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="K11">
-        <v>203.9711893049994</v>
+        <v>138.2555256463959</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N11">
-        <v>0.9943614441517251</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>244.4068383480964</v>
+        <v>153.4762432689084</v>
       </c>
       <c r="P11">
-        <v>40.43564904309697</v>
+        <v>15.22071762251246</v>
       </c>
       <c r="Q11">
-        <v>1.799122409117561</v>
+        <v>2.31088828678183</v>
       </c>
       <c r="R11">
-        <v>131.2225069843506</v>
+        <v>103.0821475761181</v>
       </c>
       <c r="S11">
-        <v>6.044340677890533</v>
+        <v>10.08337760907585</v>
       </c>
       <c r="T11">
-        <v>7.926929245620392</v>
+        <v>10.08337760907585</v>
       </c>
       <c r="U11">
-        <v>2.070265728070311</v>
+        <v>2.31088828678183</v>
       </c>
       <c r="V11">
-        <v>142.2035271040513</v>
+        <v>103.0821475761181</v>
       </c>
       <c r="W11">
-        <v>79.97600182825599</v>
+        <v>144.5415625445242</v>
       </c>
       <c r="X11">
         <v>282.7970881909201</v>
       </c>
       <c r="Y11">
-        <v>78.82589888592071</v>
+        <v>144.5415625445242</v>
       </c>
       <c r="Z11">
-        <v>1.014590419628449</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1439,67 +1439,67 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>256.1433965016357</v>
+        <v>222.4928700781229</v>
       </c>
       <c r="H12">
-        <v>31.00089684804472</v>
+        <v>27.64934760464516</v>
       </c>
       <c r="I12">
-        <v>225.142499653591</v>
+        <v>194.8435224734777</v>
       </c>
       <c r="J12">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="K12">
-        <v>231.1107490536695</v>
+        <v>194.8435224734777</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N12">
-        <v>0.9741758034859187</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>256.1433965016357</v>
+        <v>222.4928700781229</v>
       </c>
       <c r="P12">
-        <v>25.03264744796624</v>
+        <v>27.64934760464516</v>
       </c>
       <c r="Q12">
-        <v>2.325556559398995</v>
+        <v>2.085292923578877</v>
       </c>
       <c r="R12">
-        <v>172.895911581929</v>
+        <v>137.1865335719386</v>
       </c>
       <c r="S12">
-        <v>10.23237342490699</v>
+        <v>8.046948277388775</v>
       </c>
       <c r="T12">
-        <v>8.2624511722083</v>
+        <v>8.046948277388775</v>
       </c>
       <c r="U12">
-        <v>2.111721295594025</v>
+        <v>2.085292923578877</v>
       </c>
       <c r="V12">
-        <v>159.6772455970612</v>
+        <v>137.1865335719386</v>
       </c>
       <c r="W12">
-        <v>34.42596982719112</v>
+        <v>64.72494700730437</v>
       </c>
       <c r="X12">
         <v>259.5684694807821</v>
       </c>
       <c r="Y12">
-        <v>28.45772042711263</v>
+        <v>64.72494700730437</v>
       </c>
       <c r="Z12">
-        <v>1.209723382987217</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1519,67 +1519,67 @@
         <v>50</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>269.7099498172492</v>
+        <v>210.4187827336958</v>
       </c>
       <c r="H13">
-        <v>34.63691853508609</v>
+        <v>17.21882828208418</v>
       </c>
       <c r="I13">
-        <v>235.0730312821631</v>
+        <v>193.1999544516116</v>
       </c>
       <c r="J13">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="K13">
-        <v>240.9618418689845</v>
+        <v>193.1999544516116</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N13">
-        <v>0.9755612318483883</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>288.8188181601054</v>
+        <v>210.4187827336958</v>
       </c>
       <c r="P13">
-        <v>47.85697629112081</v>
+        <v>17.21882828208418</v>
       </c>
       <c r="Q13">
-        <v>1.797582662450368</v>
+        <v>2.50309629575628</v>
       </c>
       <c r="R13">
-        <v>154.9349710107675</v>
+        <v>150.0995691614632</v>
       </c>
       <c r="S13">
-        <v>6.035041085821622</v>
+        <v>12.22027302244671</v>
       </c>
       <c r="T13">
-        <v>7.786776688695378</v>
+        <v>12.22027302244671</v>
       </c>
       <c r="U13">
-        <v>2.052426998733454</v>
+        <v>2.50309629575628</v>
       </c>
       <c r="V13">
-        <v>163.9832845278212</v>
+        <v>150.0995691614632</v>
       </c>
       <c r="W13">
-        <v>53.74578687794221</v>
+        <v>95.61886370849373</v>
       </c>
       <c r="X13">
         <v>288.8188181601053</v>
       </c>
       <c r="Y13">
-        <v>47.85697629112076</v>
+        <v>95.61886370849373</v>
       </c>
       <c r="Z13">
-        <v>1.123050201730234</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1602,7 +1602,7 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>207.5260526465681</v>
+        <v>207.5260526465682</v>
       </c>
       <c r="H14">
         <v>21.91125188488202</v>
@@ -1614,34 +1614,34 @@
         <v>0.04</v>
       </c>
       <c r="K14">
-        <v>189.6092761153028</v>
+        <v>185.6148007616862</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M14">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="N14">
-        <v>0.9789331227065726</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="O14">
-        <v>220.4883478052121</v>
+        <v>207.5260526465682</v>
       </c>
       <c r="P14">
-        <v>30.8790716899094</v>
+        <v>21.91125188488202</v>
       </c>
       <c r="Q14">
-        <v>1.965766186220335</v>
+        <v>2.248256597134516</v>
       </c>
       <c r="R14">
-        <v>128.9082411254052</v>
+        <v>136.352684160024</v>
       </c>
       <c r="S14">
-        <v>7.140381356647547</v>
+        <v>9.471209300905063</v>
       </c>
       <c r="T14">
-        <v>9.471209300905061</v>
+        <v>9.471209300905063</v>
       </c>
       <c r="U14">
         <v>2.248256597134516</v>
@@ -1656,10 +1656,10 @@
         <v>231.4445678174948</v>
       </c>
       <c r="Y14">
-        <v>41.83529170219197</v>
+        <v>45.82976705580859</v>
       </c>
       <c r="Z14">
-        <v>1.095480996811297</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1679,67 +1679,67 @@
         <v>50</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>224.7190406157377</v>
+        <v>172.7380340067</v>
       </c>
       <c r="H15">
-        <v>28.46400724698167</v>
+        <v>17.81466109680268</v>
       </c>
       <c r="I15">
-        <v>196.255033368756</v>
+        <v>154.9233729098973</v>
       </c>
       <c r="J15">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="K15">
-        <v>209.5180387248002</v>
+        <v>178.2967363485797</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N15">
-        <v>0.9366975491143031</v>
+        <v>0.8689075082508172</v>
       </c>
       <c r="O15">
-        <v>270.0607667565276</v>
+        <v>233.2871406344663</v>
       </c>
       <c r="P15">
-        <v>60.54272803172741</v>
+        <v>54.99040428588663</v>
       </c>
       <c r="Q15">
-        <v>1.495297631517904</v>
+        <v>1.445111355585566</v>
       </c>
       <c r="R15">
-        <v>118.9886408933256</v>
+        <v>98.82947866680372</v>
       </c>
       <c r="S15">
-        <v>4.460663989488586</v>
+        <v>4.242324523050285</v>
       </c>
       <c r="T15">
-        <v>7.894849051500539</v>
+        <v>9.696397426145955</v>
       </c>
       <c r="U15">
-        <v>2.066210528018877</v>
+        <v>2.271754417157115</v>
       </c>
       <c r="V15">
-        <v>137.4424019254369</v>
+        <v>114.4528378730788</v>
       </c>
       <c r="W15">
-        <v>88.86251565086607</v>
+        <v>130.1941761097248</v>
       </c>
       <c r="X15">
         <v>285.1175490196221</v>
       </c>
       <c r="Y15">
-        <v>75.59951029482187</v>
+        <v>106.8208126710424</v>
       </c>
       <c r="Z15">
-        <v>1.175437715195791</v>
+        <v>1.218809077128643</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1759,67 +1759,67 @@
         <v>50</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>281.8737893346923</v>
+        <v>239.5265615441263</v>
       </c>
       <c r="H16">
-        <v>42.11705234027735</v>
+        <v>32.01000757134194</v>
       </c>
       <c r="I16">
-        <v>239.756736994415</v>
+        <v>207.5165539727844</v>
       </c>
       <c r="J16">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="K16">
-        <v>241.9188592497576</v>
+        <v>207.5165539727843</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N16">
-        <v>0.9910626138778603</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>291.7396124440075</v>
+        <v>239.5265615441263</v>
       </c>
       <c r="P16">
-        <v>49.82075319424995</v>
+        <v>32.01000757134194</v>
       </c>
       <c r="Q16">
-        <v>1.767430038197115</v>
+        <v>2.012615724340136</v>
       </c>
       <c r="R16">
-        <v>153.8641635286353</v>
+        <v>143.0927093984548</v>
       </c>
       <c r="S16">
-        <v>5.855784863519057</v>
+        <v>7.482864882499142</v>
       </c>
       <c r="T16">
-        <v>6.692628606991354</v>
+        <v>7.482864882499142</v>
       </c>
       <c r="U16">
-        <v>1.901006712812173</v>
+        <v>2.012615724340136</v>
       </c>
       <c r="V16">
-        <v>159.6919377716861</v>
+        <v>143.0927093984548</v>
       </c>
       <c r="W16">
-        <v>51.98287544959257</v>
+        <v>84.22305847122317</v>
       </c>
       <c r="X16">
         <v>291.7396124440075</v>
       </c>
       <c r="Y16">
-        <v>49.82075319424993</v>
+        <v>84.22305847122323</v>
       </c>
       <c r="Z16">
-        <v>1.043398024251311</v>
+        <v>0.9999999999999993</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1839,67 +1839,67 @@
         <v>50</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>225.3209065746895</v>
+        <v>189.7455909621027</v>
       </c>
       <c r="H17">
-        <v>25.10454176000986</v>
+        <v>21.16629693946307</v>
       </c>
       <c r="I17">
-        <v>200.2163648146797</v>
+        <v>168.5792940226396</v>
       </c>
       <c r="J17">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="K17">
-        <v>209.8953522348191</v>
+        <v>173.1045271541616</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N17">
-        <v>0.9538866043622011</v>
+        <v>0.9738583779065929</v>
       </c>
       <c r="O17">
-        <v>249.5752437525121</v>
+        <v>203.0048409843269</v>
       </c>
       <c r="P17">
-        <v>39.67989151769307</v>
+        <v>29.90031383016527</v>
       </c>
       <c r="Q17">
-        <v>1.838915899408571</v>
+        <v>1.915360849637172</v>
       </c>
       <c r="R17">
-        <v>136.9273688361259</v>
+        <v>115.8346366519982</v>
       </c>
       <c r="S17">
-        <v>6.289715878916346</v>
+        <v>6.789388303326875</v>
       </c>
       <c r="T17">
-        <v>8.975304497834461</v>
+        <v>8.96451521514542</v>
       </c>
       <c r="U17">
-        <v>2.194476861134139</v>
+        <v>2.193274030318391</v>
       </c>
       <c r="V17">
-        <v>145.1250288129623</v>
+        <v>122.1558046273076</v>
       </c>
       <c r="W17">
-        <v>75.64868153085709</v>
+        <v>107.2857523228972</v>
       </c>
       <c r="X17">
         <v>275.8650463455368</v>
       </c>
       <c r="Y17">
-        <v>65.96969411071771</v>
+        <v>102.7605191913752</v>
       </c>
       <c r="Z17">
-        <v>1.146718694858506</v>
+        <v>1.044036690035543</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1919,67 +1919,67 @@
         <v>50</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>240.5234363723933</v>
+        <v>211.9972444501474</v>
       </c>
       <c r="H18">
-        <v>25.3264258099959</v>
+        <v>20.80967117930874</v>
       </c>
       <c r="I18">
-        <v>215.1970105623974</v>
+        <v>191.1875732708387</v>
       </c>
       <c r="J18">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="K18">
-        <v>231.1242627171167</v>
+        <v>201.1861230087103</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N18">
-        <v>0.9310879266093607</v>
+        <v>0.9503019910700363</v>
       </c>
       <c r="O18">
-        <v>284.2735021787552</v>
+        <v>241.334747636913</v>
       </c>
       <c r="P18">
-        <v>53.14923946163844</v>
+        <v>40.14862462820268</v>
       </c>
       <c r="Q18">
-        <v>1.676833015177241</v>
+        <v>1.793596780103907</v>
       </c>
       <c r="R18">
-        <v>142.0018632562803</v>
+        <v>129.1756791499656</v>
       </c>
       <c r="S18">
-        <v>5.348590216120316</v>
+        <v>6.011033998593958</v>
       </c>
       <c r="T18">
-        <v>9.49693565830607</v>
+        <v>10.18743845702562</v>
       </c>
       <c r="U18">
-        <v>2.25096918428852</v>
+        <v>2.321155437520574</v>
       </c>
       <c r="V18">
-        <v>158.1880065159272</v>
+        <v>142.885091859971</v>
       </c>
       <c r="W18">
-        <v>72.32473859486319</v>
+        <v>96.33417588642189</v>
       </c>
       <c r="X18">
         <v>287.5217491572606</v>
       </c>
       <c r="Y18">
-        <v>56.39748644014384</v>
+        <v>86.33562614855023</v>
       </c>
       <c r="Z18">
-        <v>1.282410673951283</v>
+        <v>1.115810241772823</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1999,67 +1999,67 @@
         <v>50</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>234.2778426632558</v>
+        <v>195.1985371152279</v>
       </c>
       <c r="H19">
-        <v>28.5026344266675</v>
+        <v>23.53550702709995</v>
       </c>
       <c r="I19">
-        <v>205.7752082365883</v>
+        <v>171.6630300881279</v>
       </c>
       <c r="J19">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="K19">
-        <v>205.7752082365883</v>
+        <v>176.043506655738</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="N19">
-        <v>0.9999999999999999</v>
+        <v>0.9751170795741058</v>
       </c>
       <c r="O19">
-        <v>234.2778426632558</v>
+        <v>220.4631965604297</v>
       </c>
       <c r="P19">
-        <v>28.5026344266675</v>
+        <v>44.41968990469165</v>
       </c>
       <c r="Q19">
-        <v>2.10651125378387</v>
+        <v>1.60204793447511</v>
       </c>
       <c r="R19">
-        <v>145.7340880543256</v>
+        <v>104.8810341939019</v>
       </c>
       <c r="S19">
-        <v>8.219515401848675</v>
+        <v>4.963186303944553</v>
       </c>
       <c r="T19">
-        <v>8.219515401848675</v>
+        <v>8.293789332452734</v>
       </c>
       <c r="U19">
-        <v>2.10651125378387</v>
+        <v>2.115506961507962</v>
       </c>
       <c r="V19">
-        <v>145.7340880543256</v>
+        <v>121.8735011296784</v>
       </c>
       <c r="W19">
-        <v>53.10900905358517</v>
+        <v>87.22118720204554</v>
       </c>
       <c r="X19">
         <v>258.8842172901735</v>
       </c>
       <c r="Y19">
-        <v>53.10900905358514</v>
+        <v>82.84071063443542</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>1.052878307465765</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2079,67 +2079,67 @@
         <v>50</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>279.7935662368075</v>
+        <v>247.532897028719</v>
       </c>
       <c r="H20">
-        <v>45.38846859046871</v>
+        <v>35.75185531840098</v>
       </c>
       <c r="I20">
-        <v>234.4050976463388</v>
+        <v>211.7810417103181</v>
       </c>
       <c r="J20">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="K20">
-        <v>245.2286736060119</v>
+        <v>211.7810417103181</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N20">
-        <v>0.9558633344114466</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O20">
-        <v>297.1901333622746</v>
+        <v>247.532897028719</v>
       </c>
       <c r="P20">
-        <v>51.96145975626276</v>
+        <v>35.75185531840098</v>
       </c>
       <c r="Q20">
-        <v>1.743869828391818</v>
+        <v>1.934941325652157</v>
       </c>
       <c r="R20">
-        <v>154.6146516978695</v>
+        <v>142.6032993860072</v>
       </c>
       <c r="S20">
-        <v>5.719433879577549</v>
+        <v>6.923637803527286</v>
       </c>
       <c r="T20">
-        <v>6.164419618589255</v>
+        <v>6.923637803527286</v>
       </c>
       <c r="U20">
-        <v>1.81879399083668</v>
+        <v>1.934941325652157</v>
       </c>
       <c r="V20">
-        <v>151.8528237207149</v>
+        <v>142.6032993860072</v>
       </c>
       <c r="W20">
-        <v>65.26944762781946</v>
+        <v>87.8935035638402</v>
       </c>
       <c r="X20">
         <v>299.6745452741583</v>
       </c>
       <c r="Y20">
-        <v>54.4458716681464</v>
+        <v>87.89350356384017</v>
       </c>
       <c r="Z20">
-        <v>1.198795163490888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2159,67 +2159,67 @@
         <v>50</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>225.0807247614021</v>
+        <v>201.6573566376509</v>
       </c>
       <c r="H21">
-        <v>29.93370807034853</v>
+        <v>22.52476237073967</v>
       </c>
       <c r="I21">
-        <v>195.1470166910536</v>
+        <v>179.1325942669112</v>
       </c>
       <c r="J21">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="K21">
-        <v>198.1909851787077</v>
+        <v>179.1325942669112</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="N21">
-        <v>0.9846412364068454</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O21">
-        <v>236.5987075689761</v>
+        <v>201.6573566376509</v>
       </c>
       <c r="P21">
-        <v>38.4077223902684</v>
+        <v>22.52476237073967</v>
       </c>
       <c r="Q21">
-        <v>1.818106945726234</v>
+        <v>2.19195474900389</v>
       </c>
       <c r="R21">
-        <v>128.3616383314358</v>
+        <v>129.7593344181843</v>
       </c>
       <c r="S21">
-        <v>6.160185838796955</v>
+        <v>8.952696295682559</v>
       </c>
       <c r="T21">
-        <v>7.519306469897746</v>
+        <v>8.952696295682559</v>
       </c>
       <c r="U21">
-        <v>2.017473908961145</v>
+        <v>2.19195474900389</v>
       </c>
       <c r="V21">
-        <v>134.7565416606657</v>
+        <v>129.7593344181843</v>
       </c>
       <c r="W21">
-        <v>51.88270602191787</v>
+        <v>67.89712844606021</v>
       </c>
       <c r="X21">
         <v>247.0297227129714</v>
       </c>
       <c r="Y21">
-        <v>48.83873753426369</v>
+        <v>67.89712844606018</v>
       </c>
       <c r="Z21">
-        <v>1.062326928199539</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2239,67 +2239,67 @@
         <v>50</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>238.9812219152199</v>
+        <v>188.084366826073</v>
       </c>
       <c r="H22">
-        <v>25.75091650236986</v>
+        <v>17.5870472983108</v>
       </c>
       <c r="I22">
-        <v>213.23030541285</v>
+        <v>170.4973195277622</v>
       </c>
       <c r="J22">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="K22">
-        <v>216.3096349230154</v>
+        <v>170.4973195277622</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M22">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N22">
-        <v>0.9857642517345039</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>245.3635115355304</v>
+        <v>188.084366826073</v>
       </c>
       <c r="P22">
-        <v>29.05387661251494</v>
+        <v>17.5870472983108</v>
       </c>
       <c r="Q22">
-        <v>2.133588910863423</v>
+        <v>2.369727939739463</v>
       </c>
       <c r="R22">
-        <v>154.3206059649594</v>
+        <v>128.8208021674357</v>
       </c>
       <c r="S22">
-        <v>8.445121276168708</v>
+        <v>10.69448234463656</v>
       </c>
       <c r="T22">
-        <v>9.280493837694141</v>
+        <v>10.69448234463656</v>
       </c>
       <c r="U22">
-        <v>2.227914760650992</v>
+        <v>2.369727939739463</v>
       </c>
       <c r="V22">
-        <v>155.8594584369289</v>
+        <v>128.8208021674357</v>
       </c>
       <c r="W22">
-        <v>40.3033790238938</v>
+        <v>83.03636490898157</v>
       </c>
       <c r="X22">
         <v>253.5336844367438</v>
       </c>
       <c r="Y22">
-        <v>37.22404951372837</v>
+        <v>83.03636490898162</v>
       </c>
       <c r="Z22">
-        <v>1.082724194449337</v>
+        <v>0.9999999999999993</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2319,67 +2319,67 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>230.3496908544829</v>
+        <v>163.6049226827834</v>
       </c>
       <c r="H23">
-        <v>20.53518894357719</v>
+        <v>7.022997939126613</v>
       </c>
       <c r="I23">
-        <v>209.8145019109057</v>
+        <v>156.5819247436568</v>
       </c>
       <c r="J23">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="K23">
-        <v>215.4565053645818</v>
+        <v>158.6738760476161</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N23">
-        <v>0.9738137242868156</v>
+        <v>0.9868160320018173</v>
       </c>
       <c r="O23">
-        <v>244.5264180098816</v>
+        <v>171.3944031715113</v>
       </c>
       <c r="P23">
-        <v>29.06991264529984</v>
+        <v>12.72052712389515</v>
       </c>
       <c r="Q23">
-        <v>2.129619642609587</v>
+        <v>2.600750354410952</v>
       </c>
       <c r="R23">
-        <v>153.5486483862064</v>
+        <v>125.5909606218517</v>
       </c>
       <c r="S23">
-        <v>8.411666763278623</v>
+        <v>13.47384440142829</v>
       </c>
       <c r="T23">
-        <v>11.21731538421172</v>
+        <v>23.29559599772992</v>
       </c>
       <c r="U23">
-        <v>2.417458600895415</v>
+        <v>3.148264329733486</v>
       </c>
       <c r="V23">
-        <v>160.1715327782426</v>
+        <v>134.4716708441127</v>
       </c>
       <c r="W23">
-        <v>34.71191609897599</v>
+        <v>87.9444932662249</v>
       </c>
       <c r="X23">
         <v>244.5264180098817</v>
       </c>
       <c r="Y23">
-        <v>29.06991264529984</v>
+        <v>85.85254196226552</v>
       </c>
       <c r="Z23">
-        <v>1.19408394935746</v>
+        <v>1.024366795159995</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2399,67 +2399,67 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>228.2962145061127</v>
+        <v>156.798590493367</v>
       </c>
       <c r="H24">
-        <v>24.25700525681218</v>
+        <v>14.6135548653054</v>
       </c>
       <c r="I24">
-        <v>204.0392092493005</v>
+        <v>142.1850356280616</v>
       </c>
       <c r="J24">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="K24">
-        <v>212.8952603878736</v>
+        <v>142.1850356280616</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M24">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N24">
-        <v>0.9584018398416276</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>246.7131148945972</v>
+        <v>156.798590493367</v>
       </c>
       <c r="P24">
-        <v>33.81785450672358</v>
+        <v>14.6135548653054</v>
       </c>
       <c r="Q24">
-        <v>1.987237280566636</v>
+        <v>2.373012605240313</v>
       </c>
       <c r="R24">
-        <v>145.6911591633341</v>
+        <v>107.506885725321</v>
       </c>
       <c r="S24">
-        <v>7.295350887666347</v>
+        <v>10.72966789659294</v>
       </c>
       <c r="T24">
-        <v>9.411558108229352</v>
+        <v>10.72966789659294</v>
       </c>
       <c r="U24">
-        <v>2.241938519936053</v>
+        <v>2.373012605240313</v>
       </c>
       <c r="V24">
-        <v>149.6564947857619</v>
+        <v>107.506885725321</v>
       </c>
       <c r="W24">
-        <v>49.20387190819852</v>
+        <v>111.0580455294374</v>
       </c>
       <c r="X24">
         <v>253.243081157499</v>
       </c>
       <c r="Y24">
-        <v>40.34782076962537</v>
+        <v>111.0580455294374</v>
       </c>
       <c r="Z24">
-        <v>1.219492675679777</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2479,67 +2479,67 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>274.8766825897672</v>
+        <v>183.6070680117969</v>
       </c>
       <c r="H25">
-        <v>27.56661509298624</v>
+        <v>15.55455987851235</v>
       </c>
       <c r="I25">
-        <v>247.310067496781</v>
+        <v>168.0525081332845</v>
       </c>
       <c r="J25">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K25">
-        <v>247.3100674967809</v>
+        <v>168.0525081332845</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M25">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
       <c r="O25">
-        <v>274.8766825897672</v>
+        <v>183.6070680117969</v>
       </c>
       <c r="P25">
-        <v>27.56661509298624</v>
+        <v>15.55455987851235</v>
       </c>
       <c r="Q25">
-        <v>2.299717127658169</v>
+        <v>2.468444138827109</v>
       </c>
       <c r="R25">
-        <v>183.9146506158803</v>
+        <v>129.6569459691354</v>
       </c>
       <c r="S25">
-        <v>9.971361433479148</v>
+        <v>11.80406706752523</v>
       </c>
       <c r="T25">
-        <v>9.971361433479148</v>
+        <v>11.80406706752523</v>
       </c>
       <c r="U25">
-        <v>2.299717127658169</v>
+        <v>2.468444138827109</v>
       </c>
       <c r="V25">
-        <v>183.9146506158803</v>
+        <v>129.6569459691354</v>
       </c>
       <c r="W25">
-        <v>34.26852987457642</v>
+        <v>113.5260892380728</v>
       </c>
       <c r="X25">
         <v>281.5785973713574</v>
       </c>
       <c r="Y25">
-        <v>34.26852987457644</v>
+        <v>113.5260892380729</v>
       </c>
       <c r="Z25">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2559,67 +2559,67 @@
         <v>50</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>208.8514347186974</v>
+        <v>171.65292790485</v>
       </c>
       <c r="H26">
-        <v>21.92185825138296</v>
+        <v>19.35106186335457</v>
       </c>
       <c r="I26">
-        <v>186.9295764673145</v>
+        <v>152.3018660414955</v>
       </c>
       <c r="J26">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="K26">
-        <v>195.3623692661556</v>
+        <v>152.3018660414955</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N26">
-        <v>0.9568351221859284</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O26">
-        <v>214.5516408570521</v>
+        <v>171.65292790485</v>
       </c>
       <c r="P26">
-        <v>19.18927159089645</v>
+        <v>19.35106186335457</v>
       </c>
       <c r="Q26">
-        <v>2.414199107753394</v>
+        <v>2.18272728254142</v>
       </c>
       <c r="R26">
-        <v>149.0356469129759</v>
+        <v>110.0637753662046</v>
       </c>
       <c r="S26">
-        <v>11.18081214499237</v>
+        <v>8.87046556498856</v>
       </c>
       <c r="T26">
-        <v>9.527086268132486</v>
+        <v>8.87046556498856</v>
       </c>
       <c r="U26">
-        <v>2.254138927804091</v>
+        <v>2.18272728254142</v>
       </c>
       <c r="V26">
-        <v>137.5146624130688</v>
+        <v>110.0637753662046</v>
       </c>
       <c r="W26">
-        <v>49.23713537994203</v>
+        <v>83.86484580576106</v>
       </c>
       <c r="X26">
         <v>236.1667118472565</v>
       </c>
       <c r="Y26">
-        <v>40.80434258110088</v>
+        <v>83.86484580576104</v>
       </c>
       <c r="Z26">
-        <v>1.206664101549498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2639,67 +2639,67 @@
         <v>50</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>243.579141825067</v>
+        <v>160.0998835040172</v>
       </c>
       <c r="H27">
-        <v>22.61046110081273</v>
+        <v>11.78634959734787</v>
       </c>
       <c r="I27">
-        <v>220.9686807242543</v>
+        <v>148.3135339066693</v>
       </c>
       <c r="J27">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K27">
-        <v>230.4775573175044</v>
+        <v>148.3135339066694</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N27">
-        <v>0.9587427222679612</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O27">
-        <v>254.2160809529764</v>
+        <v>160.0998835040172</v>
       </c>
       <c r="P27">
-        <v>23.73852363547199</v>
+        <v>11.78634959734787</v>
       </c>
       <c r="Q27">
-        <v>2.371085419435175</v>
+        <v>2.608855844295287</v>
       </c>
       <c r="R27">
-        <v>174.1914900465195</v>
+        <v>117.564646876721</v>
       </c>
       <c r="S27">
-        <v>10.70900974537046</v>
+        <v>13.58350031803252</v>
       </c>
       <c r="T27">
-        <v>10.77285159020094</v>
+        <v>13.58350031803252</v>
       </c>
       <c r="U27">
-        <v>2.377029227728883</v>
+        <v>2.608855844295287</v>
       </c>
       <c r="V27">
-        <v>167.2229538351954</v>
+        <v>117.564646876721</v>
       </c>
       <c r="W27">
-        <v>46.03157447533309</v>
+        <v>118.686721292918</v>
       </c>
       <c r="X27">
         <v>267.0002551995873</v>
       </c>
       <c r="Y27">
-        <v>36.52269788208292</v>
+        <v>118.686721292918</v>
       </c>
       <c r="Z27">
-        <v>1.260355262471313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,64 +2719,64 @@
         <v>50</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>255.9071619061879</v>
+        <v>186.3749865343315</v>
       </c>
       <c r="H28">
-        <v>30.52659848457366</v>
+        <v>9.018826595125844</v>
       </c>
       <c r="I28">
-        <v>225.3805634216142</v>
+        <v>177.3561599392056</v>
       </c>
       <c r="J28">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="K28">
-        <v>225.3805634216142</v>
+        <v>177.3561599392056</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N28">
         <v>1</v>
       </c>
       <c r="O28">
-        <v>255.9071619061879</v>
+        <v>186.3749865343315</v>
       </c>
       <c r="P28">
-        <v>30.52659848457366</v>
+        <v>9.018826595125844</v>
       </c>
       <c r="Q28">
-        <v>2.126216344869934</v>
+        <v>3.028446464454472</v>
       </c>
       <c r="R28">
-        <v>160.474410770432</v>
+        <v>150.0431264236688</v>
       </c>
       <c r="S28">
-        <v>8.383088015374797</v>
+        <v>20.66510366604192</v>
       </c>
       <c r="T28">
-        <v>8.383088015374797</v>
+        <v>20.66510366604192</v>
       </c>
       <c r="U28">
-        <v>2.126216344869934</v>
+        <v>3.028446464454472</v>
       </c>
       <c r="V28">
-        <v>160.474410770432</v>
+        <v>150.0431264236688</v>
       </c>
       <c r="W28">
-        <v>43.53547756928327</v>
+        <v>91.55988105169189</v>
       </c>
       <c r="X28">
         <v>268.9160409908975</v>
       </c>
       <c r="Y28">
-        <v>43.53547756928327</v>
+        <v>91.55988105169189</v>
       </c>
       <c r="Z28">
         <v>1</v>
@@ -2799,67 +2799,67 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>206.1173068924407</v>
+        <v>143.269529198974</v>
       </c>
       <c r="H29">
-        <v>24.19508576518222</v>
+        <v>9.083626941446749</v>
       </c>
       <c r="I29">
-        <v>181.9222211272585</v>
+        <v>134.1859022575272</v>
       </c>
       <c r="J29">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K29">
-        <v>185.9965270966151</v>
+        <v>134.1859022575272</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M29">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N29">
-        <v>0.978094720192059</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>206.1173068924407</v>
+        <v>143.269529198974</v>
       </c>
       <c r="P29">
-        <v>20.12077979582555</v>
+        <v>9.083626941446749</v>
       </c>
       <c r="Q29">
-        <v>2.326692355919816</v>
+        <v>2.758254120041819</v>
       </c>
       <c r="R29">
-        <v>139.181662550522</v>
+        <v>109.1309508213589</v>
       </c>
       <c r="S29">
-        <v>10.24400192159569</v>
+        <v>15.77228238483288</v>
       </c>
       <c r="T29">
-        <v>8.518974013683906</v>
+        <v>15.77228238483288</v>
       </c>
       <c r="U29">
-        <v>2.142295912660923</v>
+        <v>2.758254120041819</v>
       </c>
       <c r="V29">
-        <v>130.0891877860281</v>
+        <v>109.1309508213589</v>
       </c>
       <c r="W29">
-        <v>43.89575134875213</v>
+        <v>91.63207021848339</v>
       </c>
       <c r="X29">
         <v>225.8179724760106</v>
       </c>
       <c r="Y29">
-        <v>39.8214453793955</v>
+        <v>91.63207021848342</v>
       </c>
       <c r="Z29">
-        <v>1.102314366807609</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2879,67 +2879,67 @@
         <v>50</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>242.3541234594796</v>
+        <v>174.5239583677593</v>
       </c>
       <c r="H30">
-        <v>20.38896964728199</v>
+        <v>12.52472902382059</v>
       </c>
       <c r="I30">
-        <v>221.9651538121976</v>
+        <v>161.9992293439387</v>
       </c>
       <c r="J30">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="K30">
-        <v>226.658506188999</v>
+        <v>161.9992293439387</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N30">
-        <v>0.9792932881464954</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O30">
-        <v>254.1899177389817</v>
+        <v>174.5239583677593</v>
       </c>
       <c r="P30">
-        <v>27.53141154998277</v>
+        <v>12.52472902382059</v>
       </c>
       <c r="Q30">
-        <v>2.222754104262208</v>
+        <v>2.634357017542333</v>
       </c>
       <c r="R30">
-        <v>165.4629481701428</v>
+        <v>129.0046215472208</v>
       </c>
       <c r="S30">
-        <v>9.232723766360639</v>
+        <v>13.93435003949664</v>
       </c>
       <c r="T30">
-        <v>11.88653118093132</v>
+        <v>13.93435003949664</v>
       </c>
       <c r="U30">
-        <v>2.475405925575003</v>
+        <v>2.634357017542333</v>
       </c>
       <c r="V30">
-        <v>171.4941775309468</v>
+        <v>129.0046215472208</v>
       </c>
       <c r="W30">
-        <v>38.18480975234002</v>
+        <v>98.15073422059891</v>
       </c>
       <c r="X30">
         <v>260.1499635645376</v>
       </c>
       <c r="Y30">
-        <v>33.49145737553863</v>
+        <v>98.15073422059888</v>
       </c>
       <c r="Z30">
-        <v>1.140135806100492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2959,67 +2959,67 @@
         <v>50</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>232.7577049708402</v>
+        <v>159.9463770749343</v>
       </c>
       <c r="H31">
-        <v>31.45898611526336</v>
+        <v>16.60261628578872</v>
       </c>
       <c r="I31">
-        <v>201.2987188555768</v>
+        <v>143.3437607891456</v>
       </c>
       <c r="J31">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="K31">
-        <v>210.1333520777885</v>
+        <v>145.6643609319224</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N31">
-        <v>0.9579570157004811</v>
+        <v>0.9840688543997295</v>
       </c>
       <c r="O31">
-        <v>276.3304454643041</v>
+        <v>175.9847197599682</v>
       </c>
       <c r="P31">
-        <v>66.19709338651558</v>
+        <v>30.32035882804579</v>
       </c>
       <c r="Q31">
-        <v>1.428960860309638</v>
+        <v>1.75857777632126</v>
       </c>
       <c r="R31">
-        <v>115.5402965621958</v>
+        <v>92.34365172683495</v>
       </c>
       <c r="S31">
-        <v>4.174359195060865</v>
+        <v>5.804176683990477</v>
       </c>
       <c r="T31">
-        <v>7.398766893441303</v>
+        <v>9.633805559419148</v>
       </c>
       <c r="U31">
-        <v>2.001313350303354</v>
+        <v>2.265278325257743</v>
       </c>
       <c r="V31">
-        <v>138.3394299560924</v>
+        <v>105.7342139743772</v>
       </c>
       <c r="W31">
-        <v>75.03172660872735</v>
+        <v>132.9866846751586</v>
       </c>
       <c r="X31">
         <v>276.3304454643041</v>
       </c>
       <c r="Y31">
-        <v>66.1970933865156</v>
+        <v>130.6660845323817</v>
       </c>
       <c r="Z31">
-        <v>1.133459533798977</v>
+        <v>1.017759774091966</v>
       </c>
     </row>
   </sheetData>

--- a/results/CSG/dataset_08/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/CSG/dataset_08/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,64 +639,64 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>118.6012307603794</v>
+        <v>194.7146774925678</v>
       </c>
       <c r="H2">
-        <v>16.36636384084513</v>
+        <v>38.66646281986375</v>
       </c>
       <c r="I2">
-        <v>102.2348669195342</v>
+        <v>156.0482146727041</v>
       </c>
       <c r="J2">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K2">
-        <v>102.2348669195342</v>
+        <v>156.0482146727041</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2">
-        <v>118.6012307603794</v>
+        <v>194.7146774925678</v>
       </c>
       <c r="P2">
-        <v>16.36636384084513</v>
+        <v>38.66646281986375</v>
       </c>
       <c r="Q2">
-        <v>1.980538620550845</v>
+        <v>1.616562664182392</v>
       </c>
       <c r="R2">
-        <v>69.82065125475359</v>
+        <v>93.54145452211576</v>
       </c>
       <c r="S2">
-        <v>7.246645126169637</v>
+        <v>5.035750965887133</v>
       </c>
       <c r="T2">
-        <v>7.246645126169637</v>
+        <v>5.035750965887133</v>
       </c>
       <c r="U2">
-        <v>1.980538620550845</v>
+        <v>1.616562664182392</v>
       </c>
       <c r="V2">
-        <v>69.82065125475359</v>
+        <v>93.54145452211576</v>
       </c>
       <c r="W2">
-        <v>125.3607991229451</v>
+        <v>71.54745136977522</v>
       </c>
       <c r="X2">
         <v>227.5956660424793</v>
       </c>
       <c r="Y2">
-        <v>125.3607991229451</v>
+        <v>71.54745136977522</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -719,67 +719,67 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>174.853149656567</v>
+        <v>237.2841633861714</v>
       </c>
       <c r="H3">
-        <v>11.31405089896294</v>
+        <v>26.92494601505225</v>
       </c>
       <c r="I3">
-        <v>163.5390987576041</v>
+        <v>210.3592173711192</v>
       </c>
       <c r="J3">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K3">
-        <v>163.5390987576041</v>
+        <v>210.3592173711192</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O3">
-        <v>174.853149656567</v>
+        <v>237.2841633861714</v>
       </c>
       <c r="P3">
-        <v>11.31405089896294</v>
+        <v>26.92494601505225</v>
       </c>
       <c r="Q3">
-        <v>2.737901081154629</v>
+        <v>2.176205206507685</v>
       </c>
       <c r="R3">
-        <v>132.562346569095</v>
+        <v>151.7650096682241</v>
       </c>
       <c r="S3">
-        <v>15.45451326125766</v>
+        <v>8.812799968234625</v>
       </c>
       <c r="T3">
-        <v>15.45451326125766</v>
+        <v>8.812799968234625</v>
       </c>
       <c r="U3">
-        <v>2.737901081154629</v>
+        <v>2.176205206507685</v>
       </c>
       <c r="V3">
-        <v>132.562346569095</v>
+        <v>151.7650096682241</v>
       </c>
       <c r="W3">
-        <v>80.93521818545392</v>
+        <v>34.11509957193886</v>
       </c>
       <c r="X3">
         <v>244.474316943058</v>
       </c>
       <c r="Y3">
-        <v>80.93521818545392</v>
+        <v>34.11509957193883</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -799,64 +799,64 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>144.2244245602563</v>
+        <v>226.2363490908683</v>
       </c>
       <c r="H4">
-        <v>10.29331455241298</v>
+        <v>27.52025958807458</v>
       </c>
       <c r="I4">
-        <v>133.9311100078433</v>
+        <v>198.7160895027938</v>
       </c>
       <c r="J4">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K4">
-        <v>133.9311100078433</v>
+        <v>198.7160895027938</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4">
-        <v>144.2244245602563</v>
+        <v>226.2363490908683</v>
       </c>
       <c r="P4">
-        <v>10.29331455241298</v>
+        <v>27.52025958807458</v>
       </c>
       <c r="Q4">
-        <v>2.639875978344319</v>
+        <v>2.106657799522948</v>
       </c>
       <c r="R4">
-        <v>106.7580361833863</v>
+        <v>140.7403199966803</v>
       </c>
       <c r="S4">
-        <v>14.01146577478747</v>
+        <v>8.220720025072143</v>
       </c>
       <c r="T4">
-        <v>14.01146577478747</v>
+        <v>8.220720025072143</v>
       </c>
       <c r="U4">
-        <v>2.639875978344319</v>
+        <v>2.106657799522948</v>
       </c>
       <c r="V4">
-        <v>106.7580361833863</v>
+        <v>140.7403199966803</v>
       </c>
       <c r="W4">
-        <v>126.6355531261595</v>
+        <v>61.85057363120902</v>
       </c>
       <c r="X4">
         <v>260.5666631340028</v>
       </c>
       <c r="Y4">
-        <v>126.6355531261595</v>
+        <v>61.85057363120902</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -879,67 +879,67 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>147.6727388400209</v>
+        <v>197.9417206564094</v>
       </c>
       <c r="H5">
-        <v>17.64503990971339</v>
+        <v>36.27501083460444</v>
       </c>
       <c r="I5">
-        <v>130.0276989303075</v>
+        <v>161.666709821805</v>
       </c>
       <c r="J5">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K5">
-        <v>130.0276989303075</v>
+        <v>172.71221296931</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.9360467742401761</v>
       </c>
       <c r="O5">
-        <v>147.6727388400209</v>
+        <v>214.6958006485756</v>
       </c>
       <c r="P5">
-        <v>17.64503990971339</v>
+        <v>41.98358767926555</v>
       </c>
       <c r="Q5">
-        <v>2.124543882405392</v>
+        <v>1.631943373162754</v>
       </c>
       <c r="R5">
-        <v>92.54003733532693</v>
+        <v>104.1973752745352</v>
       </c>
       <c r="S5">
-        <v>8.369079333095119</v>
+        <v>5.113803095837079</v>
       </c>
       <c r="T5">
-        <v>8.369079333095119</v>
+        <v>5.456696389669538</v>
       </c>
       <c r="U5">
-        <v>2.124543882405392</v>
+        <v>1.696843549798975</v>
       </c>
       <c r="V5">
-        <v>92.54003733532693</v>
+        <v>100.1136916682185</v>
       </c>
       <c r="W5">
-        <v>118.4457575354068</v>
+        <v>86.80674664390932</v>
       </c>
       <c r="X5">
         <v>248.4734564657143</v>
       </c>
       <c r="Y5">
-        <v>118.4457575354068</v>
+        <v>75.76124349640426</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>1.145793583074297</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,64 +959,64 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>176.5166618065734</v>
+        <v>259.298690989726</v>
       </c>
       <c r="H6">
-        <v>14.27064265101997</v>
+        <v>34.73898430138603</v>
       </c>
       <c r="I6">
-        <v>162.2460191555534</v>
+        <v>224.55970668834</v>
       </c>
       <c r="J6">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K6">
-        <v>162.2460191555534</v>
+        <v>224.55970668834</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6">
-        <v>176.5166618065734</v>
+        <v>259.298690989726</v>
       </c>
       <c r="P6">
-        <v>14.27064265101997</v>
+        <v>34.73898430138603</v>
       </c>
       <c r="Q6">
-        <v>2.515210807503515</v>
+        <v>2.01011812105066</v>
       </c>
       <c r="R6">
-        <v>126.3523445296873</v>
+        <v>154.7302448372295</v>
       </c>
       <c r="S6">
-        <v>12.36921602784</v>
+        <v>7.464198974273996</v>
       </c>
       <c r="T6">
-        <v>12.36921602784</v>
+        <v>7.464198974273996</v>
       </c>
       <c r="U6">
-        <v>2.515210807503515</v>
+        <v>2.01011812105066</v>
       </c>
       <c r="V6">
-        <v>126.3523445296873</v>
+        <v>154.7302448372295</v>
       </c>
       <c r="W6">
-        <v>115.174863072233</v>
+        <v>52.86117553944638</v>
       </c>
       <c r="X6">
         <v>277.4208822277864</v>
       </c>
       <c r="Y6">
-        <v>115.174863072233</v>
+        <v>52.86117553944638</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -1039,67 +1039,67 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>133.2821326156697</v>
+        <v>219.2908164303061</v>
       </c>
       <c r="H7">
-        <v>13.94353905243865</v>
+        <v>27.96365414056421</v>
       </c>
       <c r="I7">
-        <v>119.338593563231</v>
+        <v>191.3271622897419</v>
       </c>
       <c r="J7">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K7">
-        <v>132.6018674780714</v>
+        <v>191.3271622897419</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N7">
-        <v>0.8999767185252218</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>153.3278522837234</v>
+        <v>219.2908164303061</v>
       </c>
       <c r="P7">
-        <v>20.72598480565198</v>
+        <v>27.96365414056421</v>
       </c>
       <c r="Q7">
-        <v>2.001190236544319</v>
+        <v>2.059493177255395</v>
       </c>
       <c r="R7">
-        <v>91.12522904223474</v>
+        <v>133.7362073761203</v>
       </c>
       <c r="S7">
-        <v>7.397856059506076</v>
+        <v>7.841994301889245</v>
       </c>
       <c r="T7">
-        <v>9.558701855707096</v>
+        <v>7.841994301889245</v>
       </c>
       <c r="U7">
-        <v>2.257451928691151</v>
+        <v>2.059493177255395</v>
       </c>
       <c r="V7">
-        <v>87.86172443652301</v>
+        <v>133.7362073761203</v>
       </c>
       <c r="W7">
-        <v>121.7970635397992</v>
+        <v>49.80849481328829</v>
       </c>
       <c r="X7">
         <v>241.1356571030302</v>
       </c>
       <c r="Y7">
-        <v>108.5337896249588</v>
+        <v>49.80849481328829</v>
       </c>
       <c r="Z7">
-        <v>1.122204098471747</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1119,67 +1119,67 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>117.2062285825781</v>
+        <v>207.522439225876</v>
       </c>
       <c r="H8">
-        <v>6.317507811556151</v>
+        <v>24.33451168337895</v>
       </c>
       <c r="I8">
-        <v>110.888720771022</v>
+        <v>183.1879275424971</v>
       </c>
       <c r="J8">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K8">
-        <v>115.2330414369612</v>
+        <v>183.1879275424971</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N8">
-        <v>0.9622996962349913</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>132.1127595603432</v>
+        <v>207.522439225876</v>
       </c>
       <c r="P8">
-        <v>16.87971812338192</v>
+        <v>24.33451168337895</v>
       </c>
       <c r="Q8">
-        <v>2.057543006848717</v>
+        <v>2.143343898019396</v>
       </c>
       <c r="R8">
-        <v>80.50229545461923</v>
+        <v>131.0307004146451</v>
       </c>
       <c r="S8">
-        <v>7.826715979180927</v>
+        <v>8.527906453434969</v>
       </c>
       <c r="T8">
-        <v>18.55260524857309</v>
+        <v>8.527906453434969</v>
       </c>
       <c r="U8">
-        <v>2.920610223859028</v>
+        <v>2.143343898019396</v>
       </c>
       <c r="V8">
-        <v>92.4377428672818</v>
+        <v>131.0307004146451</v>
       </c>
       <c r="W8">
-        <v>136.89891592052</v>
+        <v>64.59970914904494</v>
       </c>
       <c r="X8">
         <v>247.787636691542</v>
       </c>
       <c r="Y8">
-        <v>132.5545952545808</v>
+        <v>64.59970914904494</v>
       </c>
       <c r="Z8">
-        <v>1.032773821666429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,67 +1199,67 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>155.752235787468</v>
+        <v>236.7333294439443</v>
       </c>
       <c r="H9">
-        <v>11.70114329579053</v>
+        <v>27.20477783308695</v>
       </c>
       <c r="I9">
-        <v>144.0510924916775</v>
+        <v>209.5285516108573</v>
       </c>
       <c r="J9">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K9">
-        <v>144.9837300489048</v>
+        <v>209.5285516108573</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N9">
-        <v>0.9935672950550193</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>157.8288442455154</v>
+        <v>236.7333294439443</v>
       </c>
       <c r="P9">
-        <v>12.84511419661051</v>
+        <v>27.20477783308695</v>
       </c>
       <c r="Q9">
-        <v>2.508547660725902</v>
+        <v>2.163541701906963</v>
       </c>
       <c r="R9">
-        <v>112.7611488792405</v>
+        <v>150.6698802778596</v>
       </c>
       <c r="S9">
-        <v>12.28707209836735</v>
+        <v>8.701902691373016</v>
       </c>
       <c r="T9">
-        <v>13.31085620013727</v>
+        <v>8.701902691373016</v>
       </c>
       <c r="U9">
-        <v>2.588579957921657</v>
+        <v>2.163541701906963</v>
       </c>
       <c r="V9">
-        <v>113.7617474714248</v>
+        <v>150.6698802778596</v>
       </c>
       <c r="W9">
-        <v>127.728384686865</v>
+        <v>62.25092556768516</v>
       </c>
       <c r="X9">
         <v>271.7794771785425</v>
       </c>
       <c r="Y9">
-        <v>126.7957471296376</v>
+        <v>62.25092556768516</v>
       </c>
       <c r="Z9">
-        <v>1.00735543248366</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1279,67 +1279,67 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>151.9508549492832</v>
+        <v>226.5463148753847</v>
       </c>
       <c r="H10">
-        <v>23.17685276513485</v>
+        <v>42.67987571583642</v>
       </c>
       <c r="I10">
-        <v>128.7740021841484</v>
+        <v>183.8664391595482</v>
       </c>
       <c r="J10">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K10">
-        <v>128.7740021841484</v>
+        <v>183.8664391595483</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="O10">
-        <v>151.9508549492832</v>
+        <v>226.5463148753847</v>
       </c>
       <c r="P10">
-        <v>23.17685276513485</v>
+        <v>42.67987571583642</v>
       </c>
       <c r="Q10">
-        <v>1.880403090892152</v>
+        <v>1.669221890276559</v>
       </c>
       <c r="R10">
-        <v>85.19217660743647</v>
+        <v>112.6242563403912</v>
       </c>
       <c r="S10">
-        <v>6.556147052798483</v>
+        <v>5.308035955487199</v>
       </c>
       <c r="T10">
-        <v>6.556147052798483</v>
+        <v>5.308035955487199</v>
       </c>
       <c r="U10">
-        <v>1.880403090892152</v>
+        <v>1.669221890276559</v>
       </c>
       <c r="V10">
-        <v>85.19217660743647</v>
+        <v>112.6242563403912</v>
       </c>
       <c r="W10">
-        <v>114.4984472825788</v>
+        <v>59.40601030717889</v>
       </c>
       <c r="X10">
         <v>243.2724494667271</v>
       </c>
       <c r="Y10">
-        <v>114.4984472825788</v>
+        <v>59.40601030717883</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1359,67 +1359,67 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>153.4762432689084</v>
+        <v>232.1011726997521</v>
       </c>
       <c r="H11">
-        <v>15.22071762251246</v>
+        <v>29.28008633708789</v>
       </c>
       <c r="I11">
-        <v>138.2555256463959</v>
+        <v>202.8210863626642</v>
       </c>
       <c r="J11">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K11">
-        <v>138.2555256463959</v>
+        <v>203.9711893049994</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.9943614441517253</v>
       </c>
       <c r="O11">
-        <v>153.4762432689084</v>
+        <v>244.4068383480964</v>
       </c>
       <c r="P11">
-        <v>15.22071762251246</v>
+        <v>40.43564904309696</v>
       </c>
       <c r="Q11">
-        <v>2.31088828678183</v>
+        <v>1.799122409117561</v>
       </c>
       <c r="R11">
-        <v>103.0821475761181</v>
+        <v>131.2225069843506</v>
       </c>
       <c r="S11">
-        <v>10.08337760907585</v>
+        <v>6.044340677890534</v>
       </c>
       <c r="T11">
-        <v>10.08337760907585</v>
+        <v>7.926929245620393</v>
       </c>
       <c r="U11">
-        <v>2.31088828678183</v>
+        <v>2.070265728070311</v>
       </c>
       <c r="V11">
-        <v>103.0821475761181</v>
+        <v>142.2035271040513</v>
       </c>
       <c r="W11">
-        <v>144.5415625445242</v>
+        <v>79.97600182825596</v>
       </c>
       <c r="X11">
         <v>282.7970881909201</v>
       </c>
       <c r="Y11">
-        <v>144.5415625445242</v>
+        <v>78.82589888592071</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>1.014590419628449</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1439,67 +1439,67 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>222.4928700781229</v>
+        <v>256.1433965016357</v>
       </c>
       <c r="H12">
-        <v>27.64934760464516</v>
+        <v>31.00089684804472</v>
       </c>
       <c r="I12">
-        <v>194.8435224734777</v>
+        <v>225.142499653591</v>
       </c>
       <c r="J12">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="K12">
-        <v>194.8435224734777</v>
+        <v>231.1107490536695</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.9741758034859187</v>
       </c>
       <c r="O12">
-        <v>222.4928700781229</v>
+        <v>256.1433965016357</v>
       </c>
       <c r="P12">
-        <v>27.64934760464516</v>
+        <v>25.03264744796624</v>
       </c>
       <c r="Q12">
-        <v>2.085292923578877</v>
+        <v>2.325556559398995</v>
       </c>
       <c r="R12">
-        <v>137.1865335719386</v>
+        <v>172.8959115819291</v>
       </c>
       <c r="S12">
-        <v>8.046948277388775</v>
+        <v>10.232373424907</v>
       </c>
       <c r="T12">
-        <v>8.046948277388775</v>
+        <v>8.2624511722083</v>
       </c>
       <c r="U12">
-        <v>2.085292923578877</v>
+        <v>2.111721295594025</v>
       </c>
       <c r="V12">
-        <v>137.1865335719386</v>
+        <v>159.6772455970612</v>
       </c>
       <c r="W12">
-        <v>64.72494700730437</v>
+        <v>34.42596982719112</v>
       </c>
       <c r="X12">
         <v>259.5684694807821</v>
       </c>
       <c r="Y12">
-        <v>64.72494700730437</v>
+        <v>28.45772042711263</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>1.209723382987217</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1519,67 +1519,67 @@
         <v>50</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>210.4187827336958</v>
+        <v>269.7099498172491</v>
       </c>
       <c r="H13">
-        <v>17.21882828208418</v>
+        <v>34.63691853508609</v>
       </c>
       <c r="I13">
-        <v>193.1999544516116</v>
+        <v>235.073031282163</v>
       </c>
       <c r="J13">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K13">
-        <v>193.1999544516116</v>
+        <v>235.0730312821631</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O13">
-        <v>210.4187827336958</v>
+        <v>269.7099498172491</v>
       </c>
       <c r="P13">
-        <v>17.21882828208418</v>
+        <v>34.63691853508609</v>
       </c>
       <c r="Q13">
-        <v>2.50309629575628</v>
+        <v>2.052426998733454</v>
       </c>
       <c r="R13">
-        <v>150.0995691614632</v>
+        <v>163.9832845278212</v>
       </c>
       <c r="S13">
-        <v>12.22027302244671</v>
+        <v>7.786776688695376</v>
       </c>
       <c r="T13">
-        <v>12.22027302244671</v>
+        <v>7.786776688695376</v>
       </c>
       <c r="U13">
-        <v>2.50309629575628</v>
+        <v>2.052426998733454</v>
       </c>
       <c r="V13">
-        <v>150.0995691614632</v>
+        <v>163.9832845278212</v>
       </c>
       <c r="W13">
-        <v>95.61886370849373</v>
+        <v>53.74578687794227</v>
       </c>
       <c r="X13">
         <v>288.8188181601053</v>
       </c>
       <c r="Y13">
-        <v>95.61886370849373</v>
+        <v>53.74578687794221</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1614,31 +1614,31 @@
         <v>0.04</v>
       </c>
       <c r="K14">
-        <v>185.6148007616862</v>
+        <v>189.6092761153028</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="N14">
-        <v>0.9999999999999997</v>
+        <v>0.9789331227065726</v>
       </c>
       <c r="O14">
-        <v>207.5260526465682</v>
+        <v>220.4883478052122</v>
       </c>
       <c r="P14">
-        <v>21.91125188488202</v>
+        <v>30.8790716899094</v>
       </c>
       <c r="Q14">
-        <v>2.248256597134516</v>
+        <v>1.965766186220335</v>
       </c>
       <c r="R14">
-        <v>136.352684160024</v>
+        <v>128.9082411254052</v>
       </c>
       <c r="S14">
-        <v>9.471209300905063</v>
+        <v>7.140381356647548</v>
       </c>
       <c r="T14">
         <v>9.471209300905063</v>
@@ -1656,10 +1656,10 @@
         <v>231.4445678174948</v>
       </c>
       <c r="Y14">
-        <v>45.82976705580859</v>
+        <v>41.83529170219197</v>
       </c>
       <c r="Z14">
-        <v>1.000000000000001</v>
+        <v>1.095480996811297</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1679,67 +1679,67 @@
         <v>50</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>172.7380340067</v>
+        <v>224.7190406157377</v>
       </c>
       <c r="H15">
-        <v>17.81466109680268</v>
+        <v>28.46400724698167</v>
       </c>
       <c r="I15">
-        <v>154.9233729098973</v>
+        <v>196.255033368756</v>
       </c>
       <c r="J15">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="K15">
-        <v>178.2967363485797</v>
+        <v>209.5180387248002</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N15">
-        <v>0.8689075082508172</v>
+        <v>0.9366975491143031</v>
       </c>
       <c r="O15">
-        <v>233.2871406344663</v>
+        <v>270.0607667565276</v>
       </c>
       <c r="P15">
-        <v>54.99040428588663</v>
+        <v>60.5427280317274</v>
       </c>
       <c r="Q15">
-        <v>1.445111355585566</v>
+        <v>1.495297631517904</v>
       </c>
       <c r="R15">
-        <v>98.82947866680372</v>
+        <v>118.9886408933257</v>
       </c>
       <c r="S15">
-        <v>4.242324523050285</v>
+        <v>4.460663989488586</v>
       </c>
       <c r="T15">
-        <v>9.696397426145955</v>
+        <v>7.894849051500539</v>
       </c>
       <c r="U15">
-        <v>2.271754417157115</v>
+        <v>2.066210528018877</v>
       </c>
       <c r="V15">
-        <v>114.4528378730788</v>
+        <v>137.4424019254369</v>
       </c>
       <c r="W15">
-        <v>130.1941761097248</v>
+        <v>88.86251565086607</v>
       </c>
       <c r="X15">
         <v>285.1175490196221</v>
       </c>
       <c r="Y15">
-        <v>106.8208126710424</v>
+        <v>75.59951029482187</v>
       </c>
       <c r="Z15">
-        <v>1.218809077128643</v>
+        <v>1.175437715195791</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1759,67 +1759,67 @@
         <v>50</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>239.5265615441263</v>
+        <v>281.8737893346924</v>
       </c>
       <c r="H16">
-        <v>32.01000757134194</v>
+        <v>42.11705234027735</v>
       </c>
       <c r="I16">
-        <v>207.5165539727844</v>
+        <v>239.756736994415</v>
       </c>
       <c r="J16">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K16">
-        <v>207.5165539727843</v>
+        <v>241.0610488631041</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.9945892881706087</v>
       </c>
       <c r="O16">
-        <v>239.5265615441263</v>
+        <v>278.6160537314234</v>
       </c>
       <c r="P16">
-        <v>32.01000757134194</v>
+        <v>37.55500486831929</v>
       </c>
       <c r="Q16">
-        <v>2.012615724340136</v>
+        <v>2.004028027785314</v>
       </c>
       <c r="R16">
-        <v>143.0927093984548</v>
+        <v>165.7997665233783</v>
       </c>
       <c r="S16">
-        <v>7.482864882499142</v>
+        <v>7.418879446517095</v>
       </c>
       <c r="T16">
-        <v>7.482864882499142</v>
+        <v>6.692628606991356</v>
       </c>
       <c r="U16">
-        <v>2.012615724340136</v>
+        <v>1.901006712812173</v>
       </c>
       <c r="V16">
-        <v>143.0927093984548</v>
+        <v>159.6919377716862</v>
       </c>
       <c r="W16">
-        <v>84.22305847122317</v>
+        <v>51.98287544959251</v>
       </c>
       <c r="X16">
         <v>291.7396124440075</v>
       </c>
       <c r="Y16">
-        <v>84.22305847122323</v>
+        <v>50.67856358090344</v>
       </c>
       <c r="Z16">
-        <v>0.9999999999999993</v>
+        <v>1.02573695417801</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1839,67 +1839,67 @@
         <v>50</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>189.7455909621027</v>
+        <v>225.3209065746895</v>
       </c>
       <c r="H17">
-        <v>21.16629693946307</v>
+        <v>25.10454176000986</v>
       </c>
       <c r="I17">
-        <v>168.5792940226396</v>
+        <v>200.2163648146797</v>
       </c>
       <c r="J17">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="K17">
-        <v>173.1045271541616</v>
+        <v>209.8953522348191</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N17">
-        <v>0.9738583779065929</v>
+        <v>0.9538866043622011</v>
       </c>
       <c r="O17">
-        <v>203.0048409843269</v>
+        <v>249.5752437525121</v>
       </c>
       <c r="P17">
-        <v>29.90031383016527</v>
+        <v>39.67989151769307</v>
       </c>
       <c r="Q17">
-        <v>1.915360849637172</v>
+        <v>1.838915899408571</v>
       </c>
       <c r="R17">
-        <v>115.8346366519982</v>
+        <v>136.9273688361259</v>
       </c>
       <c r="S17">
-        <v>6.789388303326875</v>
+        <v>6.289715878916346</v>
       </c>
       <c r="T17">
-        <v>8.96451521514542</v>
+        <v>8.975304497834461</v>
       </c>
       <c r="U17">
-        <v>2.193274030318391</v>
+        <v>2.194476861134139</v>
       </c>
       <c r="V17">
-        <v>122.1558046273076</v>
+        <v>145.1250288129623</v>
       </c>
       <c r="W17">
-        <v>107.2857523228972</v>
+        <v>75.64868153085709</v>
       </c>
       <c r="X17">
         <v>275.8650463455368</v>
       </c>
       <c r="Y17">
-        <v>102.7605191913752</v>
+        <v>65.96969411071771</v>
       </c>
       <c r="Z17">
-        <v>1.044036690035543</v>
+        <v>1.146718694858506</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1919,67 +1919,67 @@
         <v>50</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>211.9972444501474</v>
+        <v>240.5234363723933</v>
       </c>
       <c r="H18">
-        <v>20.80967117930874</v>
+        <v>25.3264258099959</v>
       </c>
       <c r="I18">
-        <v>191.1875732708387</v>
+        <v>215.1970105623974</v>
       </c>
       <c r="J18">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="K18">
-        <v>201.1861230087103</v>
+        <v>228.3148416647294</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="N18">
-        <v>0.9503019910700363</v>
+        <v>0.9425449917899119</v>
       </c>
       <c r="O18">
-        <v>241.334747636913</v>
+        <v>284.2735021787552</v>
       </c>
       <c r="P18">
-        <v>40.14862462820268</v>
+        <v>55.95866051402577</v>
       </c>
       <c r="Q18">
-        <v>1.793596780103907</v>
+        <v>1.625323597559474</v>
       </c>
       <c r="R18">
-        <v>129.1756791499656</v>
+        <v>137.3639102434637</v>
       </c>
       <c r="S18">
-        <v>6.011033998593958</v>
+        <v>5.080062667109471</v>
       </c>
       <c r="T18">
-        <v>10.18743845702562</v>
+        <v>9.49693565830607</v>
       </c>
       <c r="U18">
-        <v>2.321155437520574</v>
+        <v>2.25096918428852</v>
       </c>
       <c r="V18">
-        <v>142.885091859971</v>
+        <v>158.1880065159272</v>
       </c>
       <c r="W18">
-        <v>96.33417588642189</v>
+        <v>72.32473859486316</v>
       </c>
       <c r="X18">
         <v>287.5217491572606</v>
       </c>
       <c r="Y18">
-        <v>86.33562614855023</v>
+        <v>59.20690749253117</v>
       </c>
       <c r="Z18">
-        <v>1.115810241772823</v>
+        <v>1.22155913318031</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1999,67 +1999,67 @@
         <v>50</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19">
-        <v>195.1985371152279</v>
+        <v>234.2778426632558</v>
       </c>
       <c r="H19">
-        <v>23.53550702709995</v>
+        <v>28.5026344266675</v>
       </c>
       <c r="I19">
-        <v>171.6630300881279</v>
+        <v>205.7752082365883</v>
       </c>
       <c r="J19">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="K19">
-        <v>176.043506655738</v>
+        <v>205.7752082365883</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="N19">
-        <v>0.9751170795741058</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O19">
-        <v>220.4631965604297</v>
+        <v>234.2778426632558</v>
       </c>
       <c r="P19">
-        <v>44.41968990469165</v>
+        <v>28.5026344266675</v>
       </c>
       <c r="Q19">
-        <v>1.60204793447511</v>
+        <v>2.10651125378387</v>
       </c>
       <c r="R19">
-        <v>104.8810341939019</v>
+        <v>145.7340880543256</v>
       </c>
       <c r="S19">
-        <v>4.963186303944553</v>
+        <v>8.219515401848675</v>
       </c>
       <c r="T19">
-        <v>8.293789332452734</v>
+        <v>8.219515401848675</v>
       </c>
       <c r="U19">
-        <v>2.115506961507962</v>
+        <v>2.10651125378387</v>
       </c>
       <c r="V19">
-        <v>121.8735011296784</v>
+        <v>145.7340880543256</v>
       </c>
       <c r="W19">
-        <v>87.22118720204554</v>
+        <v>53.10900905358517</v>
       </c>
       <c r="X19">
         <v>258.8842172901735</v>
       </c>
       <c r="Y19">
-        <v>82.84071063443542</v>
+        <v>53.10900905358514</v>
       </c>
       <c r="Z19">
-        <v>1.052878307465765</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2079,67 +2079,67 @@
         <v>50</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>247.532897028719</v>
+        <v>279.7935662368075</v>
       </c>
       <c r="H20">
-        <v>35.75185531840098</v>
+        <v>45.38846859046872</v>
       </c>
       <c r="I20">
-        <v>211.7810417103181</v>
+        <v>234.4050976463387</v>
       </c>
       <c r="J20">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="K20">
-        <v>211.7810417103181</v>
+        <v>239.8674797111886</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N20">
-        <v>0.9999999999999999</v>
+        <v>0.9772275004872405</v>
       </c>
       <c r="O20">
-        <v>247.532897028719</v>
+        <v>295.6658367374206</v>
       </c>
       <c r="P20">
-        <v>35.75185531840098</v>
+        <v>55.79835702623209</v>
       </c>
       <c r="Q20">
-        <v>1.934941325652157</v>
+        <v>1.667485461682053</v>
       </c>
       <c r="R20">
-        <v>142.6032993860072</v>
+        <v>146.8245305842019</v>
       </c>
       <c r="S20">
-        <v>6.923637803527286</v>
+        <v>5.298826927796841</v>
       </c>
       <c r="T20">
-        <v>6.923637803527286</v>
+        <v>6.164419618589253</v>
       </c>
       <c r="U20">
-        <v>1.934941325652157</v>
+        <v>1.81879399083668</v>
       </c>
       <c r="V20">
-        <v>142.6032993860072</v>
+        <v>151.8528237207148</v>
       </c>
       <c r="W20">
-        <v>87.8935035638402</v>
+        <v>65.26944762781955</v>
       </c>
       <c r="X20">
         <v>299.6745452741583</v>
       </c>
       <c r="Y20">
-        <v>87.89350356384017</v>
+        <v>59.80706556296965</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>1.091333390351658</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2159,67 +2159,67 @@
         <v>50</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>201.6573566376509</v>
+        <v>225.0807247614021</v>
       </c>
       <c r="H21">
-        <v>22.52476237073967</v>
+        <v>29.93370807034853</v>
       </c>
       <c r="I21">
-        <v>179.1325942669112</v>
+        <v>195.1470166910536</v>
       </c>
       <c r="J21">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="K21">
-        <v>179.1325942669112</v>
+        <v>198.1909851787077</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="N21">
-        <v>0.9999999999999999</v>
+        <v>0.9846412364068454</v>
       </c>
       <c r="O21">
-        <v>201.6573566376509</v>
+        <v>236.5987075689761</v>
       </c>
       <c r="P21">
-        <v>22.52476237073967</v>
+        <v>38.4077223902684</v>
       </c>
       <c r="Q21">
-        <v>2.19195474900389</v>
+        <v>1.818106945726234</v>
       </c>
       <c r="R21">
-        <v>129.7593344181843</v>
+        <v>128.3616383314358</v>
       </c>
       <c r="S21">
-        <v>8.952696295682559</v>
+        <v>6.160185838796955</v>
       </c>
       <c r="T21">
-        <v>8.952696295682559</v>
+        <v>7.519306469897746</v>
       </c>
       <c r="U21">
-        <v>2.19195474900389</v>
+        <v>2.017473908961145</v>
       </c>
       <c r="V21">
-        <v>129.7593344181843</v>
+        <v>134.7565416606657</v>
       </c>
       <c r="W21">
-        <v>67.89712844606021</v>
+        <v>51.88270602191787</v>
       </c>
       <c r="X21">
         <v>247.0297227129714</v>
       </c>
       <c r="Y21">
-        <v>67.89712844606018</v>
+        <v>48.83873753426369</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>1.062326928199539</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2239,67 +2239,67 @@
         <v>50</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>188.084366826073</v>
+        <v>238.9812219152199</v>
       </c>
       <c r="H22">
-        <v>17.5870472983108</v>
+        <v>25.75091650236986</v>
       </c>
       <c r="I22">
-        <v>170.4973195277622</v>
+        <v>213.23030541285</v>
       </c>
       <c r="J22">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K22">
-        <v>170.4973195277622</v>
+        <v>216.3096349230154</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.9857642517345039</v>
       </c>
       <c r="O22">
-        <v>188.084366826073</v>
+        <v>245.3635115355304</v>
       </c>
       <c r="P22">
-        <v>17.5870472983108</v>
+        <v>29.05387661251494</v>
       </c>
       <c r="Q22">
-        <v>2.369727939739463</v>
+        <v>2.133588910863423</v>
       </c>
       <c r="R22">
-        <v>128.8208021674357</v>
+        <v>154.3206059649594</v>
       </c>
       <c r="S22">
-        <v>10.69448234463656</v>
+        <v>8.445121276168708</v>
       </c>
       <c r="T22">
-        <v>10.69448234463656</v>
+        <v>9.280493837694141</v>
       </c>
       <c r="U22">
-        <v>2.369727939739463</v>
+        <v>2.227914760650992</v>
       </c>
       <c r="V22">
-        <v>128.8208021674357</v>
+        <v>155.8594584369289</v>
       </c>
       <c r="W22">
-        <v>83.03636490898157</v>
+        <v>40.3033790238938</v>
       </c>
       <c r="X22">
         <v>253.5336844367438</v>
       </c>
       <c r="Y22">
-        <v>83.03636490898162</v>
+        <v>37.22404951372837</v>
       </c>
       <c r="Z22">
-        <v>0.9999999999999993</v>
+        <v>1.082724194449337</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2319,67 +2319,67 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>163.6049226827834</v>
+        <v>230.3496908544829</v>
       </c>
       <c r="H23">
-        <v>7.022997939126613</v>
+        <v>20.53518894357719</v>
       </c>
       <c r="I23">
-        <v>156.5819247436568</v>
+        <v>209.8145019109057</v>
       </c>
       <c r="J23">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K23">
-        <v>158.6738760476161</v>
+        <v>211.399424687369</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N23">
-        <v>0.9868160320018173</v>
+        <v>0.9925027100768736</v>
       </c>
       <c r="O23">
-        <v>171.3944031715113</v>
+        <v>236.5029114261434</v>
       </c>
       <c r="P23">
-        <v>12.72052712389515</v>
+        <v>25.10348673877434</v>
       </c>
       <c r="Q23">
-        <v>2.600750354410952</v>
+        <v>2.242953767940676</v>
       </c>
       <c r="R23">
-        <v>125.5909606218517</v>
+        <v>155.0934645181863</v>
       </c>
       <c r="S23">
-        <v>13.47384440142829</v>
+        <v>9.421118025841633</v>
       </c>
       <c r="T23">
-        <v>23.29559599772992</v>
+        <v>11.21731538421172</v>
       </c>
       <c r="U23">
-        <v>3.148264329733486</v>
+        <v>2.417458600895415</v>
       </c>
       <c r="V23">
-        <v>134.4716708441127</v>
+        <v>160.1715327782426</v>
       </c>
       <c r="W23">
-        <v>87.9444932662249</v>
+        <v>34.71191609897599</v>
       </c>
       <c r="X23">
         <v>244.5264180098817</v>
       </c>
       <c r="Y23">
-        <v>85.85254196226552</v>
+        <v>33.12699332251267</v>
       </c>
       <c r="Z23">
-        <v>1.024366795159995</v>
+        <v>1.047843846286715</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2399,67 +2399,67 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>156.798590493367</v>
+        <v>228.2962145061127</v>
       </c>
       <c r="H24">
-        <v>14.6135548653054</v>
+        <v>24.25700525681218</v>
       </c>
       <c r="I24">
-        <v>142.1850356280616</v>
+        <v>204.0392092493005</v>
       </c>
       <c r="J24">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K24">
-        <v>142.1850356280616</v>
+        <v>204.0392092493005</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
       <c r="O24">
-        <v>156.798590493367</v>
+        <v>228.2962145061127</v>
       </c>
       <c r="P24">
-        <v>14.6135548653054</v>
+        <v>24.25700525681218</v>
       </c>
       <c r="Q24">
-        <v>2.373012605240313</v>
+        <v>2.241938519936053</v>
       </c>
       <c r="R24">
-        <v>107.506885725321</v>
+        <v>149.6564947857619</v>
       </c>
       <c r="S24">
-        <v>10.72966789659294</v>
+        <v>9.411558108229352</v>
       </c>
       <c r="T24">
-        <v>10.72966789659294</v>
+        <v>9.411558108229354</v>
       </c>
       <c r="U24">
-        <v>2.373012605240313</v>
+        <v>2.241938519936053</v>
       </c>
       <c r="V24">
-        <v>107.506885725321</v>
+        <v>149.656494785762</v>
       </c>
       <c r="W24">
-        <v>111.0580455294374</v>
+        <v>49.20387190819847</v>
       </c>
       <c r="X24">
         <v>253.243081157499</v>
       </c>
       <c r="Y24">
-        <v>111.0580455294374</v>
+        <v>49.20387190819849</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2479,67 +2479,67 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>183.6070680117969</v>
+        <v>262.4639394170275</v>
       </c>
       <c r="H25">
-        <v>15.55455987851235</v>
+        <v>24.30609449929051</v>
       </c>
       <c r="I25">
-        <v>168.0525081332845</v>
+        <v>238.157844917737</v>
       </c>
       <c r="J25">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K25">
-        <v>168.0525081332845</v>
+        <v>238.157844917737</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
       <c r="O25">
-        <v>183.6070680117969</v>
+        <v>262.4639394170275</v>
       </c>
       <c r="P25">
-        <v>15.55455987851235</v>
+        <v>24.30609449929051</v>
       </c>
       <c r="Q25">
-        <v>2.468444138827109</v>
+        <v>2.379386577604868</v>
       </c>
       <c r="R25">
-        <v>129.6569459691354</v>
+        <v>180.3242499121297</v>
       </c>
       <c r="S25">
-        <v>11.80406706752523</v>
+        <v>10.79827692699413</v>
       </c>
       <c r="T25">
-        <v>11.80406706752523</v>
+        <v>10.79827692699413</v>
       </c>
       <c r="U25">
-        <v>2.468444138827109</v>
+        <v>2.379386577604868</v>
       </c>
       <c r="V25">
-        <v>129.6569459691354</v>
+        <v>180.3242499121297</v>
       </c>
       <c r="W25">
-        <v>113.5260892380728</v>
+        <v>43.42075245362037</v>
       </c>
       <c r="X25">
         <v>281.5785973713574</v>
       </c>
       <c r="Y25">
-        <v>113.5260892380729</v>
+        <v>43.42075245362039</v>
       </c>
       <c r="Z25">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999993</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2559,67 +2559,67 @@
         <v>50</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>171.65292790485</v>
+        <v>208.8514347186974</v>
       </c>
       <c r="H26">
-        <v>19.35106186335457</v>
+        <v>21.92185825138296</v>
       </c>
       <c r="I26">
-        <v>152.3018660414955</v>
+        <v>186.9295764673145</v>
       </c>
       <c r="J26">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="K26">
-        <v>152.3018660414955</v>
+        <v>195.3623692661556</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N26">
-        <v>0.9999999999999998</v>
+        <v>0.9568351221859284</v>
       </c>
       <c r="O26">
-        <v>171.65292790485</v>
+        <v>214.5516408570521</v>
       </c>
       <c r="P26">
-        <v>19.35106186335457</v>
+        <v>19.18927159089645</v>
       </c>
       <c r="Q26">
-        <v>2.18272728254142</v>
+        <v>2.414199107753394</v>
       </c>
       <c r="R26">
-        <v>110.0637753662046</v>
+        <v>149.0356469129759</v>
       </c>
       <c r="S26">
-        <v>8.87046556498856</v>
+        <v>11.18081214499237</v>
       </c>
       <c r="T26">
-        <v>8.87046556498856</v>
+        <v>9.527086268132486</v>
       </c>
       <c r="U26">
-        <v>2.18272728254142</v>
+        <v>2.254138927804091</v>
       </c>
       <c r="V26">
-        <v>110.0637753662046</v>
+        <v>137.5146624130688</v>
       </c>
       <c r="W26">
-        <v>83.86484580576106</v>
+        <v>49.23713537994203</v>
       </c>
       <c r="X26">
         <v>236.1667118472565</v>
       </c>
       <c r="Y26">
-        <v>83.86484580576104</v>
+        <v>40.80434258110088</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>1.206664101549498</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2639,67 +2639,67 @@
         <v>50</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>160.0998835040172</v>
+        <v>230.8563064250326</v>
       </c>
       <c r="H27">
-        <v>11.78634959734787</v>
+        <v>18.195426279337</v>
       </c>
       <c r="I27">
-        <v>148.3135339066693</v>
+        <v>212.6608801456956</v>
       </c>
       <c r="J27">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K27">
-        <v>148.3135339066694</v>
+        <v>218.2057769449092</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N27">
-        <v>0.9999999999999998</v>
+        <v>0.9745886801126556</v>
       </c>
       <c r="O27">
-        <v>160.0998835040172</v>
+        <v>249.5195783507649</v>
       </c>
       <c r="P27">
-        <v>11.78634959734787</v>
+        <v>31.31380140585574</v>
       </c>
       <c r="Q27">
-        <v>2.608855844295287</v>
+        <v>2.075478442611615</v>
       </c>
       <c r="R27">
-        <v>117.564646876721</v>
+        <v>153.2146571708343</v>
       </c>
       <c r="S27">
-        <v>13.58350031803252</v>
+        <v>7.968357949159897</v>
       </c>
       <c r="T27">
-        <v>13.58350031803252</v>
+        <v>12.68760087732578</v>
       </c>
       <c r="U27">
-        <v>2.608855844295287</v>
+        <v>2.540625207692627</v>
       </c>
       <c r="V27">
-        <v>117.564646876721</v>
+        <v>166.4331214756992</v>
       </c>
       <c r="W27">
-        <v>118.686721292918</v>
+        <v>54.3393750538917</v>
       </c>
       <c r="X27">
         <v>267.0002551995873</v>
       </c>
       <c r="Y27">
-        <v>118.686721292918</v>
+        <v>48.7944782546781</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>1.113637792585312</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,67 +2719,67 @@
         <v>50</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>186.3749865343315</v>
+        <v>255.9071619061879</v>
       </c>
       <c r="H28">
-        <v>9.018826595125844</v>
+        <v>30.52659848457366</v>
       </c>
       <c r="I28">
-        <v>177.3561599392056</v>
+        <v>225.3805634216143</v>
       </c>
       <c r="J28">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K28">
-        <v>177.3561599392056</v>
+        <v>225.3805634216142</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N28">
         <v>1</v>
       </c>
       <c r="O28">
-        <v>186.3749865343315</v>
+        <v>255.9071619061879</v>
       </c>
       <c r="P28">
-        <v>9.018826595125844</v>
+        <v>30.52659848457366</v>
       </c>
       <c r="Q28">
-        <v>3.028446464454472</v>
+        <v>2.126216344869934</v>
       </c>
       <c r="R28">
-        <v>150.0431264236688</v>
+        <v>160.474410770432</v>
       </c>
       <c r="S28">
-        <v>20.66510366604192</v>
+        <v>8.383088015374797</v>
       </c>
       <c r="T28">
-        <v>20.66510366604192</v>
+        <v>8.383088015374797</v>
       </c>
       <c r="U28">
-        <v>3.028446464454472</v>
+        <v>2.126216344869934</v>
       </c>
       <c r="V28">
-        <v>150.0431264236688</v>
+        <v>160.474410770432</v>
       </c>
       <c r="W28">
-        <v>91.55988105169189</v>
+        <v>43.53547756928324</v>
       </c>
       <c r="X28">
         <v>268.9160409908975</v>
       </c>
       <c r="Y28">
-        <v>91.55988105169189</v>
+        <v>43.53547756928327</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2799,67 +2799,67 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>143.269529198974</v>
+        <v>202.4724850531108</v>
       </c>
       <c r="H29">
-        <v>9.083626941446749</v>
+        <v>22.86158541631892</v>
       </c>
       <c r="I29">
-        <v>134.1859022575272</v>
+        <v>179.6108996367919</v>
       </c>
       <c r="J29">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K29">
-        <v>134.1859022575272</v>
+        <v>179.6108996367918</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N29">
         <v>1</v>
       </c>
       <c r="O29">
-        <v>143.269529198974</v>
+        <v>202.4724850531107</v>
       </c>
       <c r="P29">
-        <v>9.083626941446749</v>
+        <v>22.86158541631892</v>
       </c>
       <c r="Q29">
-        <v>2.758254120041819</v>
+        <v>2.181145991777014</v>
       </c>
       <c r="R29">
-        <v>109.1309508213589</v>
+        <v>129.74644424032</v>
       </c>
       <c r="S29">
-        <v>15.77228238483288</v>
+        <v>8.856449864084365</v>
       </c>
       <c r="T29">
-        <v>15.77228238483288</v>
+        <v>8.856449864084365</v>
       </c>
       <c r="U29">
-        <v>2.758254120041819</v>
+        <v>2.181145991777014</v>
       </c>
       <c r="V29">
-        <v>109.1309508213589</v>
+        <v>129.74644424032</v>
       </c>
       <c r="W29">
-        <v>91.63207021848339</v>
+        <v>46.20707283921877</v>
       </c>
       <c r="X29">
         <v>225.8179724760106</v>
       </c>
       <c r="Y29">
-        <v>91.63207021848342</v>
+        <v>46.20707283921882</v>
       </c>
       <c r="Z29">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999988</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2879,67 +2879,67 @@
         <v>50</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>174.5239583677593</v>
+        <v>242.3541234594796</v>
       </c>
       <c r="H30">
-        <v>12.52472902382059</v>
+        <v>20.38896964728199</v>
       </c>
       <c r="I30">
-        <v>161.9992293439387</v>
+        <v>221.9651538121976</v>
       </c>
       <c r="J30">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="K30">
-        <v>161.9992293439387</v>
+        <v>226.658506188999</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N30">
-        <v>0.9999999999999998</v>
+        <v>0.9792932881464954</v>
       </c>
       <c r="O30">
-        <v>174.5239583677593</v>
+        <v>254.1899177389817</v>
       </c>
       <c r="P30">
-        <v>12.52472902382059</v>
+        <v>27.53141154998277</v>
       </c>
       <c r="Q30">
-        <v>2.634357017542333</v>
+        <v>2.222754104262208</v>
       </c>
       <c r="R30">
-        <v>129.0046215472208</v>
+        <v>165.4629481701427</v>
       </c>
       <c r="S30">
-        <v>13.93435003949664</v>
+        <v>9.232723766360635</v>
       </c>
       <c r="T30">
-        <v>13.93435003949664</v>
+        <v>11.88653118093132</v>
       </c>
       <c r="U30">
-        <v>2.634357017542333</v>
+        <v>2.475405925575003</v>
       </c>
       <c r="V30">
-        <v>129.0046215472208</v>
+        <v>171.4941775309468</v>
       </c>
       <c r="W30">
-        <v>98.15073422059891</v>
+        <v>38.18480975234002</v>
       </c>
       <c r="X30">
         <v>260.1499635645376</v>
       </c>
       <c r="Y30">
-        <v>98.15073422059888</v>
+        <v>33.49145737553863</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>1.140135806100492</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2959,67 +2959,67 @@
         <v>50</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>159.9463770749343</v>
+        <v>232.7577049708402</v>
       </c>
       <c r="H31">
-        <v>16.60261628578872</v>
+        <v>31.45898611526336</v>
       </c>
       <c r="I31">
-        <v>143.3437607891456</v>
+        <v>201.2987188555768</v>
       </c>
       <c r="J31">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K31">
-        <v>145.6643609319224</v>
+        <v>209.4815159383705</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N31">
-        <v>0.9840688543997295</v>
+        <v>0.9609378562774911</v>
       </c>
       <c r="O31">
-        <v>175.9847197599682</v>
+        <v>269.2960488270966</v>
       </c>
       <c r="P31">
-        <v>30.32035882804579</v>
+        <v>59.81453288872615</v>
       </c>
       <c r="Q31">
-        <v>1.75857777632126</v>
+        <v>1.504562671371746</v>
       </c>
       <c r="R31">
-        <v>92.34365172683495</v>
+        <v>119.4868025484555</v>
       </c>
       <c r="S31">
-        <v>5.804176683990477</v>
+        <v>4.502184265621066</v>
       </c>
       <c r="T31">
-        <v>9.633805559419148</v>
+        <v>7.398766893441303</v>
       </c>
       <c r="U31">
-        <v>2.265278325257743</v>
+        <v>2.001313350303354</v>
       </c>
       <c r="V31">
-        <v>105.7342139743772</v>
+        <v>138.3394299560924</v>
       </c>
       <c r="W31">
-        <v>132.9866846751586</v>
+        <v>75.03172660872735</v>
       </c>
       <c r="X31">
         <v>276.3304454643041</v>
       </c>
       <c r="Y31">
-        <v>130.6660845323817</v>
+        <v>66.84892952593367</v>
       </c>
       <c r="Z31">
-        <v>1.017759774091966</v>
+        <v>1.122407301669943</v>
       </c>
     </row>
   </sheetData>
